--- a/artfynd/A 29232-2023.xlsx
+++ b/artfynd/A 29232-2023.xlsx
@@ -2724,10 +2724,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111596844</v>
+        <v>111596851</v>
       </c>
       <c r="B19" t="n">
-        <v>90684</v>
+        <v>98535</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2736,52 +2736,53 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>4368</v>
+        <v>222498</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Dofttaggsvamp</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Hydnellum suaveolens</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) P. Karst.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>50</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>mycel</t>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Björkmossen 284 m E, Upl</t>
+          <t>Björkmossen 266 m E, Upl</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>654479.2965253602</v>
+        <v>654461.5003862897</v>
       </c>
       <c r="R19" t="n">
-        <v>6690758.510708655</v>
+        <v>6690768.169657714</v>
       </c>
       <c r="S19" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -2810,7 +2811,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2820,12 +2821,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>12:15</t>
-        </is>
-      </c>
-      <c r="AC19" t="inlineStr">
-        <is>
-          <t>Rätt stark men angenäm doft av bittermandel.</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2834,7 +2830,6 @@
       <c r="AE19" t="b">
         <v>0</v>
       </c>
-      <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="b">
         <v>0</v>
       </c>
@@ -2853,10 +2848,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111596833</v>
+        <v>111596897</v>
       </c>
       <c r="B20" t="n">
-        <v>89601</v>
+        <v>103288</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2865,44 +2860,53 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>1106</v>
+        <v>221144</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Vågticka</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Osteina undosa</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Peck) Zmitr.</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
+          <t>Sw.</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Björkmossen 319 m N, Upl</t>
+          <t>Björkmossen 227 m E, Upl</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>654189.5598878536</v>
+        <v>654422.181084068</v>
       </c>
       <c r="R20" t="n">
-        <v>6691089.881082441</v>
+        <v>6690769.97221576</v>
       </c>
       <c r="S20" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -2931,7 +2935,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>16:24</t>
+          <t>12:53</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2941,7 +2945,12 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>16:24</t>
+          <t>12:53</t>
+        </is>
+      </c>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>Uppskattat antal, helt tjockt med plantor så går ej att räkna.</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2968,10 +2977,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111596818</v>
+        <v>111596832</v>
       </c>
       <c r="B21" t="n">
-        <v>57552</v>
+        <v>89601</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2980,50 +2989,44 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>208245</v>
+        <v>1106</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Vanlig padda</t>
+          <t>Vågticka</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Bufo bufo</t>
+          <t>Osteina undosa</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(Peck) Zmitr.</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Björkmossen 269 m N, Upl</t>
+          <t>Björkmossen 139 m NE, Upl</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>654176.2874868776</v>
+        <v>654305.2642562862</v>
       </c>
       <c r="R21" t="n">
-        <v>6691039.730467042</v>
+        <v>6690856.260986242</v>
       </c>
       <c r="S21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -3052,7 +3055,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>16:12</t>
+          <t>14:22</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -3062,7 +3065,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>16:12</t>
+          <t>14:22</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3089,10 +3092,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111596825</v>
+        <v>111596842</v>
       </c>
       <c r="B22" t="n">
-        <v>89183</v>
+        <v>90687</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3105,40 +3108,48 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>3215</v>
+        <v>5964</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
+          <t>(L.:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Björkmossen 246 m E, Upl</t>
+          <t>Björkmossen 289 m NE, Upl</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>654441.2125153403</v>
+        <v>654341.4935720729</v>
       </c>
       <c r="R22" t="n">
-        <v>6690766.31663138</v>
+        <v>6691020.948906532</v>
       </c>
       <c r="S22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -3167,7 +3178,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>12:39</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -3177,7 +3188,12 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>12:39</t>
+          <t>17:15</t>
+        </is>
+      </c>
+      <c r="AC22" t="inlineStr">
+        <is>
+          <t>Fuktig mark med mest gran.</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3204,7 +3220,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111596897</v>
+        <v>111596900</v>
       </c>
       <c r="B23" t="n">
         <v>103288</v>
@@ -3239,7 +3255,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -3252,17 +3268,17 @@
       <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Björkmossen 227 m E, Upl</t>
+          <t>Björkmossen 230 m E, Upl</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>654422.181084068</v>
+        <v>654424.5006373823</v>
       </c>
       <c r="R23" t="n">
-        <v>6690769.97221576</v>
+        <v>6690762.135856108</v>
       </c>
       <c r="S23" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -3291,7 +3307,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>12:53</t>
+          <t>13:07</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3301,12 +3317,12 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>12:53</t>
+          <t>13:08</t>
         </is>
       </c>
       <c r="AC23" t="inlineStr">
         <is>
-          <t>Uppskattat antal, helt tjockt med plantor så går ej att räkna.</t>
+          <t>Uppskattat antal.</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3449,10 +3465,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111596842</v>
+        <v>111596825</v>
       </c>
       <c r="B25" t="n">
-        <v>90687</v>
+        <v>89183</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3465,48 +3481,40 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>5964</v>
+        <v>3215</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Björkmossen 289 m NE, Upl</t>
+          <t>Björkmossen 246 m E, Upl</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>654341.4935720729</v>
+        <v>654441.2125153403</v>
       </c>
       <c r="R25" t="n">
-        <v>6691020.948906532</v>
+        <v>6690766.31663138</v>
       </c>
       <c r="S25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -3535,7 +3543,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>17:15</t>
+          <t>12:39</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3545,12 +3553,7 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>17:15</t>
-        </is>
-      </c>
-      <c r="AC25" t="inlineStr">
-        <is>
-          <t>Fuktig mark med mest gran.</t>
+          <t>12:39</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3577,7 +3580,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111596859</v>
+        <v>111596856</v>
       </c>
       <c r="B26" t="n">
         <v>99413</v>
@@ -3610,32 +3613,24 @@
           <t>(L.) Bernh.</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
       <c r="N26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Björkmossen 311 m SE, Upl</t>
+          <t>Björkmossen 329 m E, Upl</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>654503.0812791266</v>
+        <v>654521.5244157268</v>
       </c>
       <c r="R26" t="n">
-        <v>6690724.805518131</v>
+        <v>6690735.0113796</v>
       </c>
       <c r="S26" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -3664,7 +3659,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>11:25</t>
+          <t>11:22</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3674,7 +3669,7 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>11:27</t>
+          <t>11:22</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3701,10 +3696,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111596853</v>
+        <v>111596831</v>
       </c>
       <c r="B27" t="n">
-        <v>98535</v>
+        <v>89405</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3713,45 +3708,44 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>222498</v>
+        <v>1202</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
       <c r="N27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Björkmossen 243 m NE, Upl</t>
+          <t>Björkmossen 304 m N, Upl</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>654327.0633065681</v>
+        <v>654194.6095515667</v>
       </c>
       <c r="R27" t="n">
-        <v>6690974.714669497</v>
+        <v>6691076.210478476</v>
       </c>
       <c r="S27" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -3780,7 +3774,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>15:09</t>
+          <t>16:20</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -3790,7 +3784,7 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>15:09</t>
+          <t>16:20</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3817,7 +3811,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111596851</v>
+        <v>111596852</v>
       </c>
       <c r="B28" t="n">
         <v>98535</v>
@@ -3850,32 +3844,24 @@
           <t>Schreb.</t>
         </is>
       </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
       <c r="N28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Björkmossen 266 m E, Upl</t>
+          <t>Björkmossen 202 m E, Upl</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>654461.5003862897</v>
+        <v>654397.1701999516</v>
       </c>
       <c r="R28" t="n">
-        <v>6690768.169657714</v>
+        <v>6690785.772233884</v>
       </c>
       <c r="S28" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -3904,7 +3890,7 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>13:37</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
@@ -3914,7 +3900,7 @@
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>13:37</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3941,10 +3927,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111596815</v>
+        <v>111596818</v>
       </c>
       <c r="B29" t="n">
-        <v>56414</v>
+        <v>57552</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3953,20 +3939,20 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>100049</v>
+        <v>208245</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Vanlig padda</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Bufo bufo</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -3979,27 +3965,24 @@
           <t>1</t>
         </is>
       </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
+      <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Björkmossen 262 m E, Upl</t>
+          <t>Björkmossen 269 m N, Upl</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>654455.0078743013</v>
+        <v>654176.2874868776</v>
       </c>
       <c r="R29" t="n">
-        <v>6690804.096419388</v>
+        <v>6691039.730467042</v>
       </c>
       <c r="S29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
@@ -4028,7 +4011,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>17:46</t>
+          <t>16:12</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
@@ -4038,7 +4021,7 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>17:46</t>
+          <t>16:12</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -4065,10 +4048,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111596895</v>
+        <v>111596867</v>
       </c>
       <c r="B30" t="n">
-        <v>103288</v>
+        <v>99413</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -4081,26 +4064,26 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>221144</v>
+        <v>221235</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>7</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -4113,17 +4096,17 @@
       <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Björkmossen 238 m E, Upl</t>
+          <t>Björkmossen 254 m N, Upl</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>654433.1528313066</v>
+        <v>654194.2912932655</v>
       </c>
       <c r="R30" t="n">
-        <v>6690768.95009726</v>
+        <v>6691025.120983994</v>
       </c>
       <c r="S30" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
@@ -4152,7 +4135,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>12:48</t>
+          <t>16:08</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
@@ -4162,12 +4145,7 @@
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>12:48</t>
-        </is>
-      </c>
-      <c r="AC30" t="inlineStr">
-        <is>
-          <t>Cirka.</t>
+          <t>16:09</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -4194,10 +4172,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111596840</v>
+        <v>111596853</v>
       </c>
       <c r="B31" t="n">
-        <v>90687</v>
+        <v>98535</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4210,40 +4188,41 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>5964</v>
+        <v>222498</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="N31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Björkmossen 180 m NE, Upl</t>
+          <t>Björkmossen 243 m NE, Upl</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>654329.1032540089</v>
+        <v>654327.0633065681</v>
       </c>
       <c r="R31" t="n">
-        <v>6690891.489788271</v>
+        <v>6690974.714669497</v>
       </c>
       <c r="S31" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
@@ -4272,7 +4251,7 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>14:58</t>
+          <t>15:09</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
@@ -4282,12 +4261,7 @@
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>14:58</t>
-        </is>
-      </c>
-      <c r="AC31" t="inlineStr">
-        <is>
-          <t>Fuktig mark med nästan bara gran.</t>
+          <t>15:09</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4314,10 +4288,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111596852</v>
+        <v>111596844</v>
       </c>
       <c r="B32" t="n">
-        <v>98535</v>
+        <v>90684</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4326,45 +4300,52 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>222498</v>
+        <v>4368</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Dofttaggsvamp</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Hydnellum suaveolens</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
+          <t>(Scop.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>mycel</t>
+        </is>
+      </c>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
       <c r="N32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Björkmossen 202 m E, Upl</t>
+          <t>Björkmossen 284 m E, Upl</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>654397.1701999516</v>
+        <v>654479.2965253602</v>
       </c>
       <c r="R32" t="n">
-        <v>6690785.772233884</v>
+        <v>6690758.510708655</v>
       </c>
       <c r="S32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
@@ -4393,7 +4374,7 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>13:37</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
@@ -4403,7 +4384,12 @@
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>13:37</t>
+          <t>12:15</t>
+        </is>
+      </c>
+      <c r="AC32" t="inlineStr">
+        <is>
+          <t>Rätt stark men angenäm doft av bittermandel.</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4412,6 +4398,7 @@
       <c r="AE32" t="b">
         <v>0</v>
       </c>
+      <c r="AF32" t="inlineStr"/>
       <c r="AG32" t="b">
         <v>0</v>
       </c>
@@ -4430,10 +4417,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111596854</v>
+        <v>111596815</v>
       </c>
       <c r="B33" t="n">
-        <v>98535</v>
+        <v>56414</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4442,45 +4429,53 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>222498</v>
+        <v>100049</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Björkmossen 296 m NE, Upl</t>
+          <t>Björkmossen 262 m E, Upl</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>654358.4983336662</v>
+        <v>654455.0078743013</v>
       </c>
       <c r="R33" t="n">
-        <v>6691018.199085277</v>
+        <v>6690804.096419388</v>
       </c>
       <c r="S33" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="T33" t="inlineStr">
         <is>
@@ -4509,7 +4504,7 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>15:13</t>
+          <t>17:46</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
@@ -4519,7 +4514,7 @@
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>15:13</t>
+          <t>17:46</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4661,10 +4656,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111596831</v>
+        <v>111596840</v>
       </c>
       <c r="B35" t="n">
-        <v>89405</v>
+        <v>90687</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4673,25 +4668,25 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>1202</v>
+        <v>5964</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4700,14 +4695,14 @@
       <c r="N35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Björkmossen 304 m N, Upl</t>
+          <t>Björkmossen 180 m NE, Upl</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>654194.6095515667</v>
+        <v>654329.1032540089</v>
       </c>
       <c r="R35" t="n">
-        <v>6691076.210478476</v>
+        <v>6690891.489788271</v>
       </c>
       <c r="S35" t="n">
         <v>4</v>
@@ -4739,7 +4734,7 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>16:20</t>
+          <t>14:58</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
@@ -4749,7 +4744,12 @@
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>16:20</t>
+          <t>14:58</t>
+        </is>
+      </c>
+      <c r="AC35" t="inlineStr">
+        <is>
+          <t>Fuktig mark med nästan bara gran.</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4776,10 +4776,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111596856</v>
+        <v>111596843</v>
       </c>
       <c r="B36" t="n">
-        <v>99413</v>
+        <v>90709</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4788,45 +4788,52 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>221235</v>
+        <v>5448</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
+          <t>(Schultz) nom.prov</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
       <c r="N36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Björkmossen 329 m E, Upl</t>
+          <t>Björkmossen 282 m E, Upl</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>654521.5244157268</v>
+        <v>654476.3214109741</v>
       </c>
       <c r="R36" t="n">
-        <v>6690735.0113796</v>
+        <v>6690758.38440035</v>
       </c>
       <c r="S36" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="T36" t="inlineStr">
         <is>
@@ -4855,7 +4862,7 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>11:22</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
@@ -4865,7 +4872,12 @@
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>11:22</t>
+          <t>12:02</t>
+        </is>
+      </c>
+      <c r="AC36" t="inlineStr">
+        <is>
+          <t>Väldigt svag doft.</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4892,10 +4904,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111596843</v>
+        <v>111596854</v>
       </c>
       <c r="B37" t="n">
-        <v>90709</v>
+        <v>98535</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4904,49 +4916,42 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>5448</v>
+        <v>222498</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="N37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Björkmossen 282 m E, Upl</t>
+          <t>Björkmossen 296 m NE, Upl</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>654476.3214109741</v>
+        <v>654358.4983336662</v>
       </c>
       <c r="R37" t="n">
-        <v>6690758.38440035</v>
+        <v>6691018.199085277</v>
       </c>
       <c r="S37" t="n">
         <v>8</v>
@@ -4978,7 +4983,7 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>15:13</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
@@ -4988,12 +4993,7 @@
       </c>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>12:02</t>
-        </is>
-      </c>
-      <c r="AC37" t="inlineStr">
-        <is>
-          <t>Väldigt svag doft.</t>
+          <t>15:13</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -5020,10 +5020,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111596867</v>
+        <v>111596895</v>
       </c>
       <c r="B38" t="n">
-        <v>99413</v>
+        <v>103288</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -5036,26 +5036,26 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>221235</v>
+        <v>221144</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>30</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -5068,17 +5068,17 @@
       <c r="N38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Björkmossen 254 m N, Upl</t>
+          <t>Björkmossen 238 m E, Upl</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>654194.2912932655</v>
+        <v>654433.1528313066</v>
       </c>
       <c r="R38" t="n">
-        <v>6691025.120983994</v>
+        <v>6690768.95009726</v>
       </c>
       <c r="S38" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="T38" t="inlineStr">
         <is>
@@ -5107,7 +5107,7 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>16:08</t>
+          <t>12:48</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
@@ -5117,7 +5117,12 @@
       </c>
       <c r="AB38" t="inlineStr">
         <is>
-          <t>16:09</t>
+          <t>12:48</t>
+        </is>
+      </c>
+      <c r="AC38" t="inlineStr">
+        <is>
+          <t>Cirka.</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -5144,10 +5149,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111596900</v>
+        <v>111596859</v>
       </c>
       <c r="B39" t="n">
-        <v>103288</v>
+        <v>99413</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -5160,26 +5165,26 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>221144</v>
+        <v>221235</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>15</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -5192,17 +5197,17 @@
       <c r="N39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Björkmossen 230 m E, Upl</t>
+          <t>Björkmossen 311 m SE, Upl</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>654424.5006373823</v>
+        <v>654503.0812791266</v>
       </c>
       <c r="R39" t="n">
-        <v>6690762.135856108</v>
+        <v>6690724.805518131</v>
       </c>
       <c r="S39" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="T39" t="inlineStr">
         <is>
@@ -5231,7 +5236,7 @@
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>13:07</t>
+          <t>11:25</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
@@ -5241,12 +5246,7 @@
       </c>
       <c r="AB39" t="inlineStr">
         <is>
-          <t>13:08</t>
-        </is>
-      </c>
-      <c r="AC39" t="inlineStr">
-        <is>
-          <t>Uppskattat antal.</t>
+          <t>11:27</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -5273,7 +5273,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111596832</v>
+        <v>111596833</v>
       </c>
       <c r="B40" t="n">
         <v>89601</v>
@@ -5312,14 +5312,14 @@
       <c r="N40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
-          <t>Björkmossen 139 m NE, Upl</t>
+          <t>Björkmossen 319 m N, Upl</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>654305.2642562862</v>
+        <v>654189.5598878536</v>
       </c>
       <c r="R40" t="n">
-        <v>6690856.260986242</v>
+        <v>6691089.881082441</v>
       </c>
       <c r="S40" t="n">
         <v>4</v>
@@ -5351,7 +5351,7 @@
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>14:22</t>
+          <t>16:24</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
@@ -5361,7 +5361,7 @@
       </c>
       <c r="AB40" t="inlineStr">
         <is>
-          <t>14:22</t>
+          <t>16:24</t>
         </is>
       </c>
       <c r="AD40" t="b">

--- a/artfynd/A 29232-2023.xlsx
+++ b/artfynd/A 29232-2023.xlsx
@@ -2724,7 +2724,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111596851</v>
+        <v>111596850</v>
       </c>
       <c r="B19" t="n">
         <v>98535</v>
@@ -2757,32 +2757,24 @@
           <t>Schreb.</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Björkmossen 266 m E, Upl</t>
+          <t>Björkmossen 311 m SE, Upl</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>654461.5003862897</v>
+        <v>654503.0392390501</v>
       </c>
       <c r="R19" t="n">
-        <v>6690768.169657714</v>
+        <v>6690725.795596425</v>
       </c>
       <c r="S19" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -2811,7 +2803,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>11:27</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2821,7 +2813,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>11:27</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2848,10 +2840,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111596897</v>
+        <v>111596818</v>
       </c>
       <c r="B20" t="n">
-        <v>103288</v>
+        <v>57552</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2864,49 +2856,46 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>221144</v>
+        <v>208245</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Vanlig padda</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Bufo bufo</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Björkmossen 227 m E, Upl</t>
+          <t>Björkmossen 269 m N, Upl</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>654422.181084068</v>
+        <v>654176.2874868776</v>
       </c>
       <c r="R20" t="n">
-        <v>6690769.97221576</v>
+        <v>6691039.730467042</v>
       </c>
       <c r="S20" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -2935,7 +2924,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>12:53</t>
+          <t>16:12</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2945,12 +2934,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>12:53</t>
-        </is>
-      </c>
-      <c r="AC20" t="inlineStr">
-        <is>
-          <t>Uppskattat antal, helt tjockt med plantor så går ej att räkna.</t>
+          <t>16:12</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2977,10 +2961,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111596832</v>
+        <v>111596897</v>
       </c>
       <c r="B21" t="n">
-        <v>89601</v>
+        <v>103288</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2989,44 +2973,53 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>1106</v>
+        <v>221144</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Vågticka</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Osteina undosa</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Peck) Zmitr.</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
+          <t>Sw.</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Björkmossen 139 m NE, Upl</t>
+          <t>Björkmossen 227 m E, Upl</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>654305.2642562862</v>
+        <v>654422.181084068</v>
       </c>
       <c r="R21" t="n">
-        <v>6690856.260986242</v>
+        <v>6690769.97221576</v>
       </c>
       <c r="S21" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -3055,7 +3048,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>14:22</t>
+          <t>12:53</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -3065,7 +3058,12 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>14:22</t>
+          <t>12:53</t>
+        </is>
+      </c>
+      <c r="AC21" t="inlineStr">
+        <is>
+          <t>Uppskattat antal, helt tjockt med plantor så går ej att räkna.</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3092,10 +3090,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111596842</v>
+        <v>111596832</v>
       </c>
       <c r="B22" t="n">
-        <v>90687</v>
+        <v>89601</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3104,49 +3102,41 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>5964</v>
+        <v>1106</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Vågticka</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Osteina undosa</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Peck) Zmitr.</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Björkmossen 289 m NE, Upl</t>
+          <t>Björkmossen 139 m NE, Upl</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>654341.4935720729</v>
+        <v>654305.2642562862</v>
       </c>
       <c r="R22" t="n">
-        <v>6691020.948906532</v>
+        <v>6690856.260986242</v>
       </c>
       <c r="S22" t="n">
         <v>4</v>
@@ -3178,7 +3168,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>17:15</t>
+          <t>14:22</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -3188,12 +3178,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>17:15</t>
-        </is>
-      </c>
-      <c r="AC22" t="inlineStr">
-        <is>
-          <t>Fuktig mark med mest gran.</t>
+          <t>14:22</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3220,10 +3205,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111596900</v>
+        <v>111596852</v>
       </c>
       <c r="B23" t="n">
-        <v>103288</v>
+        <v>98535</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3236,46 +3221,38 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>221144</v>
+        <v>222498</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Sw.</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
       <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Björkmossen 230 m E, Upl</t>
+          <t>Björkmossen 202 m E, Upl</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>654424.5006373823</v>
+        <v>654397.1701999516</v>
       </c>
       <c r="R23" t="n">
-        <v>6690762.135856108</v>
+        <v>6690785.772233884</v>
       </c>
       <c r="S23" t="n">
         <v>3</v>
@@ -3307,7 +3284,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>13:07</t>
+          <t>13:37</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3317,12 +3294,7 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>13:08</t>
-        </is>
-      </c>
-      <c r="AC23" t="inlineStr">
-        <is>
-          <t>Uppskattat antal.</t>
+          <t>13:37</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3349,10 +3321,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111596850</v>
+        <v>111596831</v>
       </c>
       <c r="B24" t="n">
-        <v>98535</v>
+        <v>89405</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3361,42 +3333,41 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>222498</v>
+        <v>1202</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
       <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Björkmossen 311 m SE, Upl</t>
+          <t>Björkmossen 304 m N, Upl</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>654503.0392390501</v>
+        <v>654194.6095515667</v>
       </c>
       <c r="R24" t="n">
-        <v>6690725.795596425</v>
+        <v>6691076.210478476</v>
       </c>
       <c r="S24" t="n">
         <v>4</v>
@@ -3428,7 +3399,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>11:27</t>
+          <t>16:20</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -3438,7 +3409,7 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>11:27</t>
+          <t>16:20</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3465,10 +3436,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111596825</v>
+        <v>111596844</v>
       </c>
       <c r="B25" t="n">
-        <v>89183</v>
+        <v>90684</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3477,44 +3448,52 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>3215</v>
+        <v>4368</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Dofttaggsvamp</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Hydnellum suaveolens</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
+          <t>(Scop.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>mycel</t>
+        </is>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Björkmossen 246 m E, Upl</t>
+          <t>Björkmossen 284 m E, Upl</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>654441.2125153403</v>
+        <v>654479.2965253602</v>
       </c>
       <c r="R25" t="n">
-        <v>6690766.31663138</v>
+        <v>6690758.510708655</v>
       </c>
       <c r="S25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -3543,7 +3522,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>12:39</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3553,7 +3532,12 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>12:39</t>
+          <t>12:15</t>
+        </is>
+      </c>
+      <c r="AC25" t="inlineStr">
+        <is>
+          <t>Rätt stark men angenäm doft av bittermandel.</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3562,6 +3546,7 @@
       <c r="AE25" t="b">
         <v>0</v>
       </c>
+      <c r="AF25" t="inlineStr"/>
       <c r="AG25" t="b">
         <v>0</v>
       </c>
@@ -3696,10 +3681,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111596831</v>
+        <v>111596843</v>
       </c>
       <c r="B27" t="n">
-        <v>89405</v>
+        <v>90709</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3712,40 +3697,48 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>1202</v>
+        <v>5448</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
+          <t>(Schultz) nom.prov</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="N27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Björkmossen 304 m N, Upl</t>
+          <t>Björkmossen 282 m E, Upl</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>654194.6095515667</v>
+        <v>654476.3214109741</v>
       </c>
       <c r="R27" t="n">
-        <v>6691076.210478476</v>
+        <v>6690758.38440035</v>
       </c>
       <c r="S27" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -3774,7 +3767,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>16:20</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -3784,7 +3777,12 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>16:20</t>
+          <t>12:02</t>
+        </is>
+      </c>
+      <c r="AC27" t="inlineStr">
+        <is>
+          <t>Väldigt svag doft.</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3811,7 +3809,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111596852</v>
+        <v>111596851</v>
       </c>
       <c r="B28" t="n">
         <v>98535</v>
@@ -3844,24 +3842,32 @@
           <t>Schreb.</t>
         </is>
       </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
       <c r="N28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Björkmossen 202 m E, Upl</t>
+          <t>Björkmossen 266 m E, Upl</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>654397.1701999516</v>
+        <v>654461.5003862897</v>
       </c>
       <c r="R28" t="n">
-        <v>6690785.772233884</v>
+        <v>6690768.169657714</v>
       </c>
       <c r="S28" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -3890,7 +3896,7 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>13:37</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
@@ -3900,7 +3906,7 @@
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>13:37</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3927,10 +3933,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111596818</v>
+        <v>111596815</v>
       </c>
       <c r="B29" t="n">
-        <v>57552</v>
+        <v>56414</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3939,20 +3945,20 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>208245</v>
+        <v>100049</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Vanlig padda</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Bufo bufo</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -3965,24 +3971,27 @@
           <t>1</t>
         </is>
       </c>
-      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Björkmossen 269 m N, Upl</t>
+          <t>Björkmossen 262 m E, Upl</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>654176.2874868776</v>
+        <v>654455.0078743013</v>
       </c>
       <c r="R29" t="n">
-        <v>6691039.730467042</v>
+        <v>6690804.096419388</v>
       </c>
       <c r="S29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
@@ -4011,7 +4020,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>16:12</t>
+          <t>17:46</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
@@ -4021,7 +4030,7 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>16:12</t>
+          <t>17:46</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -4048,10 +4057,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111596867</v>
+        <v>111596853</v>
       </c>
       <c r="B30" t="n">
-        <v>99413</v>
+        <v>98535</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -4064,49 +4073,41 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>221235</v>
+        <v>222498</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
       <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Björkmossen 254 m N, Upl</t>
+          <t>Björkmossen 243 m NE, Upl</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>654194.2912932655</v>
+        <v>654327.0633065681</v>
       </c>
       <c r="R30" t="n">
-        <v>6691025.120983994</v>
+        <v>6690974.714669497</v>
       </c>
       <c r="S30" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
@@ -4135,7 +4136,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>16:08</t>
+          <t>15:09</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
@@ -4145,7 +4146,7 @@
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>16:09</t>
+          <t>15:09</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -4172,10 +4173,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111596853</v>
+        <v>111596825</v>
       </c>
       <c r="B31" t="n">
-        <v>98535</v>
+        <v>89183</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4188,41 +4189,40 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>222498</v>
+        <v>3215</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
       <c r="N31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Björkmossen 243 m NE, Upl</t>
+          <t>Björkmossen 246 m E, Upl</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>654327.0633065681</v>
+        <v>654441.2125153403</v>
       </c>
       <c r="R31" t="n">
-        <v>6690974.714669497</v>
+        <v>6690766.31663138</v>
       </c>
       <c r="S31" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
@@ -4251,7 +4251,7 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>15:09</t>
+          <t>12:39</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
@@ -4261,7 +4261,7 @@
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>15:09</t>
+          <t>12:39</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4288,10 +4288,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111596844</v>
+        <v>111596895</v>
       </c>
       <c r="B32" t="n">
-        <v>90684</v>
+        <v>103288</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4300,52 +4300,53 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>4368</v>
+        <v>221144</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Dofttaggsvamp</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Hydnellum suaveolens</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) P. Karst.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>30</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>mycel</t>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="N32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Björkmossen 284 m E, Upl</t>
+          <t>Björkmossen 238 m E, Upl</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>654479.2965253602</v>
+        <v>654433.1528313066</v>
       </c>
       <c r="R32" t="n">
-        <v>6690758.510708655</v>
+        <v>6690768.95009726</v>
       </c>
       <c r="S32" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
@@ -4374,7 +4375,7 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>12:48</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
@@ -4384,12 +4385,12 @@
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>12:48</t>
         </is>
       </c>
       <c r="AC32" t="inlineStr">
         <is>
-          <t>Rätt stark men angenäm doft av bittermandel.</t>
+          <t>Cirka.</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4398,7 +4399,6 @@
       <c r="AE32" t="b">
         <v>0</v>
       </c>
-      <c r="AF32" t="inlineStr"/>
       <c r="AG32" t="b">
         <v>0</v>
       </c>
@@ -4417,10 +4417,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111596815</v>
+        <v>111596840</v>
       </c>
       <c r="B33" t="n">
-        <v>56414</v>
+        <v>90687</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4429,50 +4429,41 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>100049</v>
+        <v>5964</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(L.:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Björkmossen 262 m E, Upl</t>
+          <t>Björkmossen 180 m NE, Upl</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>654455.0078743013</v>
+        <v>654329.1032540089</v>
       </c>
       <c r="R33" t="n">
-        <v>6690804.096419388</v>
+        <v>6690891.489788271</v>
       </c>
       <c r="S33" t="n">
         <v>4</v>
@@ -4504,7 +4495,7 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>17:46</t>
+          <t>14:58</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
@@ -4514,7 +4505,12 @@
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>17:46</t>
+          <t>14:58</t>
+        </is>
+      </c>
+      <c r="AC33" t="inlineStr">
+        <is>
+          <t>Fuktig mark med nästan bara gran.</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4541,10 +4537,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111596830</v>
+        <v>111596833</v>
       </c>
       <c r="B34" t="n">
-        <v>89369</v>
+        <v>89601</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4553,25 +4549,25 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>5447</v>
+        <v>1106</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Vågticka</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Osteina undosa</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Peck) Zmitr.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4580,17 +4576,17 @@
       <c r="N34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Björkmossen 277 m N, Upl</t>
+          <t>Björkmossen 319 m N, Upl</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>654228.1590436924</v>
+        <v>654189.5598878536</v>
       </c>
       <c r="R34" t="n">
-        <v>6691046.391933746</v>
+        <v>6691089.881082441</v>
       </c>
       <c r="S34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T34" t="inlineStr">
         <is>
@@ -4619,7 +4615,7 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>16:55</t>
+          <t>16:24</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
@@ -4629,7 +4625,7 @@
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>16:55</t>
+          <t>16:24</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4656,10 +4652,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111596840</v>
+        <v>111596867</v>
       </c>
       <c r="B35" t="n">
-        <v>90687</v>
+        <v>99413</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4672,37 +4668,46 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>5964</v>
+        <v>221235</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
+          <t>(L.) Bernh.</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="N35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Björkmossen 180 m NE, Upl</t>
+          <t>Björkmossen 254 m N, Upl</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>654329.1032540089</v>
+        <v>654194.2912932655</v>
       </c>
       <c r="R35" t="n">
-        <v>6690891.489788271</v>
+        <v>6691025.120983994</v>
       </c>
       <c r="S35" t="n">
         <v>4</v>
@@ -4734,7 +4739,7 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>14:58</t>
+          <t>16:08</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
@@ -4744,12 +4749,7 @@
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>14:58</t>
-        </is>
-      </c>
-      <c r="AC35" t="inlineStr">
-        <is>
-          <t>Fuktig mark med nästan bara gran.</t>
+          <t>16:09</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4776,10 +4776,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111596843</v>
+        <v>111596830</v>
       </c>
       <c r="B36" t="n">
-        <v>90709</v>
+        <v>89369</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4788,52 +4788,44 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>5448</v>
+        <v>5447</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Schwein.) Murrill</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="N36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Björkmossen 282 m E, Upl</t>
+          <t>Björkmossen 277 m N, Upl</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>654476.3214109741</v>
+        <v>654228.1590436924</v>
       </c>
       <c r="R36" t="n">
-        <v>6690758.38440035</v>
+        <v>6691046.391933746</v>
       </c>
       <c r="S36" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="T36" t="inlineStr">
         <is>
@@ -4862,7 +4854,7 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>16:55</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
@@ -4872,12 +4864,7 @@
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>12:02</t>
-        </is>
-      </c>
-      <c r="AC36" t="inlineStr">
-        <is>
-          <t>Väldigt svag doft.</t>
+          <t>16:55</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4904,10 +4891,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111596854</v>
+        <v>111596900</v>
       </c>
       <c r="B37" t="n">
-        <v>98535</v>
+        <v>103288</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4920,41 +4907,49 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>222498</v>
+        <v>221144</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
+          <t>Sw.</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
       <c r="N37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Björkmossen 296 m NE, Upl</t>
+          <t>Björkmossen 230 m E, Upl</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>654358.4983336662</v>
+        <v>654424.5006373823</v>
       </c>
       <c r="R37" t="n">
-        <v>6691018.199085277</v>
+        <v>6690762.135856108</v>
       </c>
       <c r="S37" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="T37" t="inlineStr">
         <is>
@@ -4983,7 +4978,7 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>15:13</t>
+          <t>13:07</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
@@ -4993,7 +4988,12 @@
       </c>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>15:13</t>
+          <t>13:08</t>
+        </is>
+      </c>
+      <c r="AC37" t="inlineStr">
+        <is>
+          <t>Uppskattat antal.</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -5020,10 +5020,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111596895</v>
+        <v>111596854</v>
       </c>
       <c r="B38" t="n">
-        <v>103288</v>
+        <v>98535</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -5036,49 +5036,41 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>221144</v>
+        <v>222498</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Sw.</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
       <c r="N38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Björkmossen 238 m E, Upl</t>
+          <t>Björkmossen 296 m NE, Upl</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>654433.1528313066</v>
+        <v>654358.4983336662</v>
       </c>
       <c r="R38" t="n">
-        <v>6690768.95009726</v>
+        <v>6691018.199085277</v>
       </c>
       <c r="S38" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="T38" t="inlineStr">
         <is>
@@ -5107,7 +5099,7 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>12:48</t>
+          <t>15:13</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
@@ -5117,12 +5109,7 @@
       </c>
       <c r="AB38" t="inlineStr">
         <is>
-          <t>12:48</t>
-        </is>
-      </c>
-      <c r="AC38" t="inlineStr">
-        <is>
-          <t>Cirka.</t>
+          <t>15:13</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -5149,10 +5136,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111596859</v>
+        <v>111596842</v>
       </c>
       <c r="B39" t="n">
-        <v>99413</v>
+        <v>90687</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -5165,49 +5152,48 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>221235</v>
+        <v>5964</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
+          <t>fruktkroppar</t>
         </is>
       </c>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
       <c r="N39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Björkmossen 311 m SE, Upl</t>
+          <t>Björkmossen 289 m NE, Upl</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>654503.0812791266</v>
+        <v>654341.4935720729</v>
       </c>
       <c r="R39" t="n">
-        <v>6690724.805518131</v>
+        <v>6691020.948906532</v>
       </c>
       <c r="S39" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="T39" t="inlineStr">
         <is>
@@ -5236,7 +5222,7 @@
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>11:25</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
@@ -5246,7 +5232,12 @@
       </c>
       <c r="AB39" t="inlineStr">
         <is>
-          <t>11:27</t>
+          <t>17:15</t>
+        </is>
+      </c>
+      <c r="AC39" t="inlineStr">
+        <is>
+          <t>Fuktig mark med mest gran.</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -5273,10 +5264,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111596833</v>
+        <v>111596859</v>
       </c>
       <c r="B40" t="n">
-        <v>89601</v>
+        <v>99413</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5285,44 +5276,53 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>1106</v>
+        <v>221235</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Vågticka</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Osteina undosa</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Peck) Zmitr.</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
+          <t>(L.) Bernh.</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="N40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
-          <t>Björkmossen 319 m N, Upl</t>
+          <t>Björkmossen 311 m SE, Upl</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>654189.5598878536</v>
+        <v>654503.0812791266</v>
       </c>
       <c r="R40" t="n">
-        <v>6691089.881082441</v>
+        <v>6690724.805518131</v>
       </c>
       <c r="S40" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="T40" t="inlineStr">
         <is>
@@ -5351,7 +5351,7 @@
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>16:24</t>
+          <t>11:25</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
@@ -5361,7 +5361,7 @@
       </c>
       <c r="AB40" t="inlineStr">
         <is>
-          <t>16:24</t>
+          <t>11:27</t>
         </is>
       </c>
       <c r="AD40" t="b">

--- a/artfynd/A 29232-2023.xlsx
+++ b/artfynd/A 29232-2023.xlsx
@@ -2724,7 +2724,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111596850</v>
+        <v>111596852</v>
       </c>
       <c r="B19" t="n">
         <v>98535</v>
@@ -2764,17 +2764,17 @@
       <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Björkmossen 311 m SE, Upl</t>
+          <t>Björkmossen 202 m E, Upl</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>654503.0392390501</v>
+        <v>654397.1701999516</v>
       </c>
       <c r="R19" t="n">
-        <v>6690725.795596425</v>
+        <v>6690785.772233884</v>
       </c>
       <c r="S19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -2803,7 +2803,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>11:27</t>
+          <t>13:37</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2813,7 +2813,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>11:27</t>
+          <t>13:37</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2961,10 +2961,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111596897</v>
+        <v>111596853</v>
       </c>
       <c r="B21" t="n">
-        <v>103288</v>
+        <v>98535</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2977,49 +2977,41 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>221144</v>
+        <v>222498</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Sw.</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
       <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Björkmossen 227 m E, Upl</t>
+          <t>Björkmossen 243 m NE, Upl</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>654422.181084068</v>
+        <v>654327.0633065681</v>
       </c>
       <c r="R21" t="n">
-        <v>6690769.97221576</v>
+        <v>6690974.714669497</v>
       </c>
       <c r="S21" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -3048,7 +3040,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>12:53</t>
+          <t>15:09</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -3058,12 +3050,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>12:53</t>
-        </is>
-      </c>
-      <c r="AC21" t="inlineStr">
-        <is>
-          <t>Uppskattat antal, helt tjockt med plantor så går ej att räkna.</t>
+          <t>15:09</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3090,10 +3077,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111596832</v>
+        <v>111596854</v>
       </c>
       <c r="B22" t="n">
-        <v>89601</v>
+        <v>98535</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3102,44 +3089,45 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>1106</v>
+        <v>222498</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Vågticka</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Osteina undosa</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Peck) Zmitr.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Björkmossen 139 m NE, Upl</t>
+          <t>Björkmossen 296 m NE, Upl</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>654305.2642562862</v>
+        <v>654358.4983336662</v>
       </c>
       <c r="R22" t="n">
-        <v>6690856.260986242</v>
+        <v>6691018.199085277</v>
       </c>
       <c r="S22" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -3168,7 +3156,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>14:22</t>
+          <t>15:13</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -3178,7 +3166,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>14:22</t>
+          <t>15:13</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3205,10 +3193,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111596852</v>
+        <v>111596842</v>
       </c>
       <c r="B23" t="n">
-        <v>98535</v>
+        <v>90687</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3221,41 +3209,48 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>222498</v>
+        <v>5964</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
+          <t>(L.:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
       <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Björkmossen 202 m E, Upl</t>
+          <t>Björkmossen 289 m NE, Upl</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>654397.1701999516</v>
+        <v>654341.4935720729</v>
       </c>
       <c r="R23" t="n">
-        <v>6690785.772233884</v>
+        <v>6691020.948906532</v>
       </c>
       <c r="S23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -3284,7 +3279,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>13:37</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3294,7 +3289,12 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>13:37</t>
+          <t>17:15</t>
+        </is>
+      </c>
+      <c r="AC23" t="inlineStr">
+        <is>
+          <t>Fuktig mark med mest gran.</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3321,10 +3321,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111596831</v>
+        <v>111596895</v>
       </c>
       <c r="B24" t="n">
-        <v>89405</v>
+        <v>103288</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3333,44 +3333,53 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>1202</v>
+        <v>221144</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
+          <t>Sw.</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Björkmossen 304 m N, Upl</t>
+          <t>Björkmossen 238 m E, Upl</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>654194.6095515667</v>
+        <v>654433.1528313066</v>
       </c>
       <c r="R24" t="n">
-        <v>6691076.210478476</v>
+        <v>6690768.95009726</v>
       </c>
       <c r="S24" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -3399,7 +3408,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>16:20</t>
+          <t>12:48</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -3409,7 +3418,12 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>16:20</t>
+          <t>12:48</t>
+        </is>
+      </c>
+      <c r="AC24" t="inlineStr">
+        <is>
+          <t>Cirka.</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3436,10 +3450,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111596844</v>
+        <v>111596897</v>
       </c>
       <c r="B25" t="n">
-        <v>90684</v>
+        <v>103288</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3448,52 +3462,53 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>4368</v>
+        <v>221144</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Dofttaggsvamp</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Hydnellum suaveolens</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) P. Karst.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>100</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>mycel</t>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Björkmossen 284 m E, Upl</t>
+          <t>Björkmossen 227 m E, Upl</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>654479.2965253602</v>
+        <v>654422.181084068</v>
       </c>
       <c r="R25" t="n">
-        <v>6690758.510708655</v>
+        <v>6690769.97221576</v>
       </c>
       <c r="S25" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -3522,7 +3537,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>12:53</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3532,12 +3547,12 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>12:53</t>
         </is>
       </c>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>Rätt stark men angenäm doft av bittermandel.</t>
+          <t>Uppskattat antal, helt tjockt med plantor så går ej att räkna.</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3546,7 +3561,6 @@
       <c r="AE25" t="b">
         <v>0</v>
       </c>
-      <c r="AF25" t="inlineStr"/>
       <c r="AG25" t="b">
         <v>0</v>
       </c>
@@ -3565,10 +3579,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111596856</v>
+        <v>111596832</v>
       </c>
       <c r="B26" t="n">
-        <v>99413</v>
+        <v>89601</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3577,42 +3591,41 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>221235</v>
+        <v>1106</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Vågticka</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Osteina undosa</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>(Peck) Zmitr.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
       <c r="N26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Björkmossen 329 m E, Upl</t>
+          <t>Björkmossen 139 m NE, Upl</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>654521.5244157268</v>
+        <v>654305.2642562862</v>
       </c>
       <c r="R26" t="n">
-        <v>6690735.0113796</v>
+        <v>6690856.260986242</v>
       </c>
       <c r="S26" t="n">
         <v>4</v>
@@ -3644,7 +3657,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>11:22</t>
+          <t>14:22</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3654,7 +3667,7 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>11:22</t>
+          <t>14:22</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3681,10 +3694,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111596843</v>
+        <v>111596830</v>
       </c>
       <c r="B27" t="n">
-        <v>90709</v>
+        <v>89369</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3693,52 +3706,44 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>5448</v>
+        <v>5447</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Schwein.) Murrill</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="N27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Björkmossen 282 m E, Upl</t>
+          <t>Björkmossen 277 m N, Upl</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>654476.3214109741</v>
+        <v>654228.1590436924</v>
       </c>
       <c r="R27" t="n">
-        <v>6690758.38440035</v>
+        <v>6691046.391933746</v>
       </c>
       <c r="S27" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -3767,7 +3772,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>16:55</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -3777,12 +3782,7 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>12:02</t>
-        </is>
-      </c>
-      <c r="AC27" t="inlineStr">
-        <is>
-          <t>Väldigt svag doft.</t>
+          <t>16:55</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3809,10 +3809,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111596851</v>
+        <v>111596833</v>
       </c>
       <c r="B28" t="n">
-        <v>98535</v>
+        <v>89601</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3821,53 +3821,44 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>222498</v>
+        <v>1106</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Vågticka</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Osteina undosa</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+          <t>(Peck) Zmitr.</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
       <c r="N28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Björkmossen 266 m E, Upl</t>
+          <t>Björkmossen 319 m N, Upl</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>654461.5003862897</v>
+        <v>654189.5598878536</v>
       </c>
       <c r="R28" t="n">
-        <v>6690768.169657714</v>
+        <v>6691089.881082441</v>
       </c>
       <c r="S28" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -3896,7 +3887,7 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>16:24</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
@@ -3906,7 +3897,7 @@
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>16:24</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3933,10 +3924,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111596815</v>
+        <v>111596843</v>
       </c>
       <c r="B29" t="n">
-        <v>56414</v>
+        <v>90709</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3949,49 +3940,48 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>100049</v>
+        <v>5448</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Schultz) nom.prov</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
         </is>
       </c>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Björkmossen 262 m E, Upl</t>
+          <t>Björkmossen 282 m E, Upl</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>654455.0078743013</v>
+        <v>654476.3214109741</v>
       </c>
       <c r="R29" t="n">
-        <v>6690804.096419388</v>
+        <v>6690758.38440035</v>
       </c>
       <c r="S29" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
@@ -4020,7 +4010,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>17:46</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
@@ -4030,7 +4020,12 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>17:46</t>
+          <t>12:02</t>
+        </is>
+      </c>
+      <c r="AC29" t="inlineStr">
+        <is>
+          <t>Väldigt svag doft.</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -4057,10 +4052,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111596853</v>
+        <v>111596867</v>
       </c>
       <c r="B30" t="n">
-        <v>98535</v>
+        <v>99413</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -4073,41 +4068,49 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>222498</v>
+        <v>221235</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
+          <t>(L.) Bernh.</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
       <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Björkmossen 243 m NE, Upl</t>
+          <t>Björkmossen 254 m N, Upl</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>654327.0633065681</v>
+        <v>654194.2912932655</v>
       </c>
       <c r="R30" t="n">
-        <v>6690974.714669497</v>
+        <v>6691025.120983994</v>
       </c>
       <c r="S30" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
@@ -4136,7 +4139,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>15:09</t>
+          <t>16:08</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
@@ -4146,7 +4149,7 @@
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>15:09</t>
+          <t>16:09</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -4173,10 +4176,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111596825</v>
+        <v>111596859</v>
       </c>
       <c r="B31" t="n">
-        <v>89183</v>
+        <v>99413</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4189,40 +4192,49 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>3215</v>
+        <v>221235</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
+          <t>(L.) Bernh.</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="N31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Björkmossen 246 m E, Upl</t>
+          <t>Björkmossen 311 m SE, Upl</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>654441.2125153403</v>
+        <v>654503.0812791266</v>
       </c>
       <c r="R31" t="n">
-        <v>6690766.31663138</v>
+        <v>6690724.805518131</v>
       </c>
       <c r="S31" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
@@ -4251,7 +4263,7 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>12:39</t>
+          <t>11:25</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
@@ -4261,7 +4273,7 @@
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>12:39</t>
+          <t>11:27</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4288,10 +4300,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111596895</v>
+        <v>111596825</v>
       </c>
       <c r="B32" t="n">
-        <v>103288</v>
+        <v>89183</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4304,49 +4316,40 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>221144</v>
+        <v>3215</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Sw.</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+          <t>(Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
       <c r="N32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Björkmossen 238 m E, Upl</t>
+          <t>Björkmossen 246 m E, Upl</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>654433.1528313066</v>
+        <v>654441.2125153403</v>
       </c>
       <c r="R32" t="n">
-        <v>6690768.95009726</v>
+        <v>6690766.31663138</v>
       </c>
       <c r="S32" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
@@ -4375,7 +4378,7 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>12:48</t>
+          <t>12:39</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
@@ -4385,12 +4388,7 @@
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>12:48</t>
-        </is>
-      </c>
-      <c r="AC32" t="inlineStr">
-        <is>
-          <t>Cirka.</t>
+          <t>12:39</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4417,10 +4415,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111596840</v>
+        <v>111596900</v>
       </c>
       <c r="B33" t="n">
-        <v>90687</v>
+        <v>103288</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4433,40 +4431,49 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>5964</v>
+        <v>221144</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
+          <t>Sw.</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="N33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Björkmossen 180 m NE, Upl</t>
+          <t>Björkmossen 230 m E, Upl</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>654329.1032540089</v>
+        <v>654424.5006373823</v>
       </c>
       <c r="R33" t="n">
-        <v>6690891.489788271</v>
+        <v>6690762.135856108</v>
       </c>
       <c r="S33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T33" t="inlineStr">
         <is>
@@ -4495,7 +4502,7 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>14:58</t>
+          <t>13:07</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
@@ -4505,12 +4512,12 @@
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>14:58</t>
+          <t>13:08</t>
         </is>
       </c>
       <c r="AC33" t="inlineStr">
         <is>
-          <t>Fuktig mark med nästan bara gran.</t>
+          <t>Uppskattat antal.</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4537,10 +4544,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111596833</v>
+        <v>111596831</v>
       </c>
       <c r="B34" t="n">
-        <v>89601</v>
+        <v>89405</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4549,25 +4556,25 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>1106</v>
+        <v>1202</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Vågticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Osteina undosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Peck) Zmitr.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4576,14 +4583,14 @@
       <c r="N34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Björkmossen 319 m N, Upl</t>
+          <t>Björkmossen 304 m N, Upl</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>654189.5598878536</v>
+        <v>654194.6095515667</v>
       </c>
       <c r="R34" t="n">
-        <v>6691089.881082441</v>
+        <v>6691076.210478476</v>
       </c>
       <c r="S34" t="n">
         <v>4</v>
@@ -4615,7 +4622,7 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>16:24</t>
+          <t>16:20</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
@@ -4625,7 +4632,7 @@
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>16:24</t>
+          <t>16:20</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4652,10 +4659,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111596867</v>
+        <v>111596840</v>
       </c>
       <c r="B35" t="n">
-        <v>99413</v>
+        <v>90687</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4668,46 +4675,37 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>221235</v>
+        <v>5964</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+          <t>(L.:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
       <c r="N35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Björkmossen 254 m N, Upl</t>
+          <t>Björkmossen 180 m NE, Upl</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>654194.2912932655</v>
+        <v>654329.1032540089</v>
       </c>
       <c r="R35" t="n">
-        <v>6691025.120983994</v>
+        <v>6690891.489788271</v>
       </c>
       <c r="S35" t="n">
         <v>4</v>
@@ -4739,7 +4737,7 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>16:08</t>
+          <t>14:58</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
@@ -4749,7 +4747,12 @@
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>16:09</t>
+          <t>14:58</t>
+        </is>
+      </c>
+      <c r="AC35" t="inlineStr">
+        <is>
+          <t>Fuktig mark med nästan bara gran.</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4776,10 +4779,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111596830</v>
+        <v>111596850</v>
       </c>
       <c r="B36" t="n">
-        <v>89369</v>
+        <v>98535</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4792,40 +4795,41 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>5447</v>
+        <v>222498</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="N36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Björkmossen 277 m N, Upl</t>
+          <t>Björkmossen 311 m SE, Upl</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>654228.1590436924</v>
+        <v>654503.0392390501</v>
       </c>
       <c r="R36" t="n">
-        <v>6691046.391933746</v>
+        <v>6690725.795596425</v>
       </c>
       <c r="S36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T36" t="inlineStr">
         <is>
@@ -4854,7 +4858,7 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>16:55</t>
+          <t>11:27</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
@@ -4864,7 +4868,7 @@
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>16:55</t>
+          <t>11:27</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4891,10 +4895,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111596900</v>
+        <v>111596856</v>
       </c>
       <c r="B37" t="n">
-        <v>103288</v>
+        <v>99413</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4907,49 +4911,41 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>221144</v>
+        <v>221235</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Sw.</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+          <t>(L.) Bernh.</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
       <c r="N37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Björkmossen 230 m E, Upl</t>
+          <t>Björkmossen 329 m E, Upl</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>654424.5006373823</v>
+        <v>654521.5244157268</v>
       </c>
       <c r="R37" t="n">
-        <v>6690762.135856108</v>
+        <v>6690735.0113796</v>
       </c>
       <c r="S37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T37" t="inlineStr">
         <is>
@@ -4978,7 +4974,7 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>13:07</t>
+          <t>11:22</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
@@ -4988,12 +4984,7 @@
       </c>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>13:08</t>
-        </is>
-      </c>
-      <c r="AC37" t="inlineStr">
-        <is>
-          <t>Uppskattat antal.</t>
+          <t>11:22</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -5020,10 +5011,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111596854</v>
+        <v>111596844</v>
       </c>
       <c r="B38" t="n">
-        <v>98535</v>
+        <v>90684</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -5032,45 +5023,52 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>222498</v>
+        <v>4368</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Dofttaggsvamp</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Hydnellum suaveolens</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
+          <t>(Scop.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>mycel</t>
+        </is>
+      </c>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
       <c r="N38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Björkmossen 296 m NE, Upl</t>
+          <t>Björkmossen 284 m E, Upl</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>654358.4983336662</v>
+        <v>654479.2965253602</v>
       </c>
       <c r="R38" t="n">
-        <v>6691018.199085277</v>
+        <v>6690758.510708655</v>
       </c>
       <c r="S38" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="T38" t="inlineStr">
         <is>
@@ -5099,7 +5097,7 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>15:13</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
@@ -5109,7 +5107,12 @@
       </c>
       <c r="AB38" t="inlineStr">
         <is>
-          <t>15:13</t>
+          <t>12:15</t>
+        </is>
+      </c>
+      <c r="AC38" t="inlineStr">
+        <is>
+          <t>Rätt stark men angenäm doft av bittermandel.</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -5118,6 +5121,7 @@
       <c r="AE38" t="b">
         <v>0</v>
       </c>
+      <c r="AF38" t="inlineStr"/>
       <c r="AG38" t="b">
         <v>0</v>
       </c>
@@ -5136,10 +5140,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111596842</v>
+        <v>111596815</v>
       </c>
       <c r="B39" t="n">
-        <v>90687</v>
+        <v>56414</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -5148,49 +5152,50 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>5964</v>
+        <v>100049</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Björkmossen 289 m NE, Upl</t>
+          <t>Björkmossen 262 m E, Upl</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>654341.4935720729</v>
+        <v>654455.0078743013</v>
       </c>
       <c r="R39" t="n">
-        <v>6691020.948906532</v>
+        <v>6690804.096419388</v>
       </c>
       <c r="S39" t="n">
         <v>4</v>
@@ -5222,7 +5227,7 @@
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>17:15</t>
+          <t>17:46</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
@@ -5232,12 +5237,7 @@
       </c>
       <c r="AB39" t="inlineStr">
         <is>
-          <t>17:15</t>
-        </is>
-      </c>
-      <c r="AC39" t="inlineStr">
-        <is>
-          <t>Fuktig mark med mest gran.</t>
+          <t>17:46</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -5264,10 +5264,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111596859</v>
+        <v>111596851</v>
       </c>
       <c r="B40" t="n">
-        <v>99413</v>
+        <v>98535</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5280,26 +5280,26 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>221235</v>
+        <v>222498</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>50</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -5312,17 +5312,17 @@
       <c r="N40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
-          <t>Björkmossen 311 m SE, Upl</t>
+          <t>Björkmossen 266 m E, Upl</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>654503.0812791266</v>
+        <v>654461.5003862897</v>
       </c>
       <c r="R40" t="n">
-        <v>6690724.805518131</v>
+        <v>6690768.169657714</v>
       </c>
       <c r="S40" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="T40" t="inlineStr">
         <is>
@@ -5351,7 +5351,7 @@
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>11:25</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
@@ -5361,7 +5361,7 @@
       </c>
       <c r="AB40" t="inlineStr">
         <is>
-          <t>11:27</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="AD40" t="b">

--- a/artfynd/A 29232-2023.xlsx
+++ b/artfynd/A 29232-2023.xlsx
@@ -2840,10 +2840,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111596818</v>
+        <v>111596840</v>
       </c>
       <c r="B20" t="n">
-        <v>57552</v>
+        <v>90687</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2856,46 +2856,40 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>208245</v>
+        <v>5964</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Vanlig padda</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Bufo bufo</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(L.:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Björkmossen 269 m N, Upl</t>
+          <t>Björkmossen 180 m NE, Upl</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>654176.2874868776</v>
+        <v>654329.1032540089</v>
       </c>
       <c r="R20" t="n">
-        <v>6691039.730467042</v>
+        <v>6690891.489788271</v>
       </c>
       <c r="S20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -2924,7 +2918,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>16:12</t>
+          <t>14:58</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2934,7 +2928,12 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>16:12</t>
+          <t>14:58</t>
+        </is>
+      </c>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>Fuktig mark med nästan bara gran.</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2961,10 +2960,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111596853</v>
+        <v>111596867</v>
       </c>
       <c r="B21" t="n">
-        <v>98535</v>
+        <v>99413</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2977,41 +2976,49 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>222498</v>
+        <v>221235</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
+          <t>(L.) Bernh.</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
       <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Björkmossen 243 m NE, Upl</t>
+          <t>Björkmossen 254 m N, Upl</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>654327.0633065681</v>
+        <v>654194.2912932655</v>
       </c>
       <c r="R21" t="n">
-        <v>6690974.714669497</v>
+        <v>6691025.120983994</v>
       </c>
       <c r="S21" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -3040,7 +3047,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>15:09</t>
+          <t>16:08</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -3050,7 +3057,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>15:09</t>
+          <t>16:09</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3077,10 +3084,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111596854</v>
+        <v>111596832</v>
       </c>
       <c r="B22" t="n">
-        <v>98535</v>
+        <v>89601</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3089,45 +3096,44 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>222498</v>
+        <v>1106</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Vågticka</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Osteina undosa</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Peck) Zmitr.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
       <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Björkmossen 296 m NE, Upl</t>
+          <t>Björkmossen 139 m NE, Upl</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>654358.4983336662</v>
+        <v>654305.2642562862</v>
       </c>
       <c r="R22" t="n">
-        <v>6691018.199085277</v>
+        <v>6690856.260986242</v>
       </c>
       <c r="S22" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -3156,7 +3162,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>15:13</t>
+          <t>14:22</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -3166,7 +3172,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>15:13</t>
+          <t>14:22</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3193,10 +3199,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111596842</v>
+        <v>111596833</v>
       </c>
       <c r="B23" t="n">
-        <v>90687</v>
+        <v>89601</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3205,49 +3211,41 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>5964</v>
+        <v>1106</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Vågticka</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Osteina undosa</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Peck) Zmitr.</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Björkmossen 289 m NE, Upl</t>
+          <t>Björkmossen 319 m N, Upl</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>654341.4935720729</v>
+        <v>654189.5598878536</v>
       </c>
       <c r="R23" t="n">
-        <v>6691020.948906532</v>
+        <v>6691089.881082441</v>
       </c>
       <c r="S23" t="n">
         <v>4</v>
@@ -3279,7 +3277,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>17:15</t>
+          <t>16:24</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3289,12 +3287,7 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>17:15</t>
-        </is>
-      </c>
-      <c r="AC23" t="inlineStr">
-        <is>
-          <t>Fuktig mark med mest gran.</t>
+          <t>16:24</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3321,10 +3314,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111596895</v>
+        <v>111596818</v>
       </c>
       <c r="B24" t="n">
-        <v>103288</v>
+        <v>57552</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3337,49 +3330,46 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>221144</v>
+        <v>208245</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Vanlig padda</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Bufo bufo</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Björkmossen 238 m E, Upl</t>
+          <t>Björkmossen 269 m N, Upl</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>654433.1528313066</v>
+        <v>654176.2874868776</v>
       </c>
       <c r="R24" t="n">
-        <v>6690768.95009726</v>
+        <v>6691039.730467042</v>
       </c>
       <c r="S24" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -3408,7 +3398,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>12:48</t>
+          <t>16:12</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -3418,12 +3408,7 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>12:48</t>
-        </is>
-      </c>
-      <c r="AC24" t="inlineStr">
-        <is>
-          <t>Cirka.</t>
+          <t>16:12</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3450,10 +3435,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111596897</v>
+        <v>111596831</v>
       </c>
       <c r="B25" t="n">
-        <v>103288</v>
+        <v>89405</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3462,53 +3447,44 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>221144</v>
+        <v>1202</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Sw.</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
       <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Björkmossen 227 m E, Upl</t>
+          <t>Björkmossen 304 m N, Upl</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>654422.181084068</v>
+        <v>654194.6095515667</v>
       </c>
       <c r="R25" t="n">
-        <v>6690769.97221576</v>
+        <v>6691076.210478476</v>
       </c>
       <c r="S25" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -3537,7 +3513,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>12:53</t>
+          <t>16:20</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3547,12 +3523,7 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>12:53</t>
-        </is>
-      </c>
-      <c r="AC25" t="inlineStr">
-        <is>
-          <t>Uppskattat antal, helt tjockt med plantor så går ej att räkna.</t>
+          <t>16:20</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3579,10 +3550,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111596832</v>
+        <v>111596859</v>
       </c>
       <c r="B26" t="n">
-        <v>89601</v>
+        <v>99413</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3591,44 +3562,53 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>1106</v>
+        <v>221235</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Vågticka</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Osteina undosa</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Peck) Zmitr.</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
+          <t>(L.) Bernh.</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="N26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Björkmossen 139 m NE, Upl</t>
+          <t>Björkmossen 311 m SE, Upl</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>654305.2642562862</v>
+        <v>654503.0812791266</v>
       </c>
       <c r="R26" t="n">
-        <v>6690856.260986242</v>
+        <v>6690724.805518131</v>
       </c>
       <c r="S26" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -3657,7 +3637,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>14:22</t>
+          <t>11:25</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3667,7 +3647,7 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>14:22</t>
+          <t>11:27</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3694,10 +3674,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111596830</v>
+        <v>111596900</v>
       </c>
       <c r="B27" t="n">
-        <v>89369</v>
+        <v>103288</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3710,37 +3690,46 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>5447</v>
+        <v>221144</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
+          <t>Sw.</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="N27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Björkmossen 277 m N, Upl</t>
+          <t>Björkmossen 230 m E, Upl</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>654228.1590436924</v>
+        <v>654424.5006373823</v>
       </c>
       <c r="R27" t="n">
-        <v>6691046.391933746</v>
+        <v>6690762.135856108</v>
       </c>
       <c r="S27" t="n">
         <v>3</v>
@@ -3772,7 +3761,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>16:55</t>
+          <t>13:07</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -3782,7 +3771,12 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>16:55</t>
+          <t>13:08</t>
+        </is>
+      </c>
+      <c r="AC27" t="inlineStr">
+        <is>
+          <t>Uppskattat antal.</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3809,10 +3803,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111596833</v>
+        <v>111596843</v>
       </c>
       <c r="B28" t="n">
-        <v>89601</v>
+        <v>90709</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3821,44 +3815,52 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>1106</v>
+        <v>5448</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Vågticka</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Osteina undosa</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Peck) Zmitr.</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
+          <t>(Schultz) nom.prov</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="N28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Björkmossen 319 m N, Upl</t>
+          <t>Björkmossen 282 m E, Upl</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>654189.5598878536</v>
+        <v>654476.3214109741</v>
       </c>
       <c r="R28" t="n">
-        <v>6691089.881082441</v>
+        <v>6690758.38440035</v>
       </c>
       <c r="S28" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -3887,7 +3889,7 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>16:24</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
@@ -3897,7 +3899,12 @@
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>16:24</t>
+          <t>12:02</t>
+        </is>
+      </c>
+      <c r="AC28" t="inlineStr">
+        <is>
+          <t>Väldigt svag doft.</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3924,10 +3931,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111596843</v>
+        <v>111596897</v>
       </c>
       <c r="B29" t="n">
-        <v>90709</v>
+        <v>103288</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3936,49 +3943,50 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>5448</v>
+        <v>221144</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>100</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>fruktkroppar</t>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="N29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Björkmossen 282 m E, Upl</t>
+          <t>Björkmossen 227 m E, Upl</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>654476.3214109741</v>
+        <v>654422.181084068</v>
       </c>
       <c r="R29" t="n">
-        <v>6690758.38440035</v>
+        <v>6690769.97221576</v>
       </c>
       <c r="S29" t="n">
         <v>8</v>
@@ -4010,7 +4018,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>12:53</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
@@ -4020,12 +4028,12 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>12:02</t>
+          <t>12:53</t>
         </is>
       </c>
       <c r="AC29" t="inlineStr">
         <is>
-          <t>Väldigt svag doft.</t>
+          <t>Uppskattat antal, helt tjockt med plantor så går ej att räkna.</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -4052,10 +4060,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111596867</v>
+        <v>111596825</v>
       </c>
       <c r="B30" t="n">
-        <v>99413</v>
+        <v>89183</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -4068,49 +4076,40 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>221235</v>
+        <v>3215</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+          <t>(Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
       <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Björkmossen 254 m N, Upl</t>
+          <t>Björkmossen 246 m E, Upl</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>654194.2912932655</v>
+        <v>654441.2125153403</v>
       </c>
       <c r="R30" t="n">
-        <v>6691025.120983994</v>
+        <v>6690766.31663138</v>
       </c>
       <c r="S30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
@@ -4139,7 +4138,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>16:08</t>
+          <t>12:39</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
@@ -4149,7 +4148,7 @@
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>16:09</t>
+          <t>12:39</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -4176,10 +4175,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111596859</v>
+        <v>111596895</v>
       </c>
       <c r="B31" t="n">
-        <v>99413</v>
+        <v>103288</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4192,26 +4191,26 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>221235</v>
+        <v>221144</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>30</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -4224,14 +4223,14 @@
       <c r="N31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Björkmossen 311 m SE, Upl</t>
+          <t>Björkmossen 238 m E, Upl</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>654503.0812791266</v>
+        <v>654433.1528313066</v>
       </c>
       <c r="R31" t="n">
-        <v>6690724.805518131</v>
+        <v>6690768.95009726</v>
       </c>
       <c r="S31" t="n">
         <v>6</v>
@@ -4263,7 +4262,7 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>11:25</t>
+          <t>12:48</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
@@ -4273,7 +4272,12 @@
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>11:27</t>
+          <t>12:48</t>
+        </is>
+      </c>
+      <c r="AC31" t="inlineStr">
+        <is>
+          <t>Cirka.</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4300,10 +4304,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111596825</v>
+        <v>111596851</v>
       </c>
       <c r="B32" t="n">
-        <v>89183</v>
+        <v>98535</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4316,40 +4320,49 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>3215</v>
+        <v>222498</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="N32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Björkmossen 246 m E, Upl</t>
+          <t>Björkmossen 266 m E, Upl</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>654441.2125153403</v>
+        <v>654461.5003862897</v>
       </c>
       <c r="R32" t="n">
-        <v>6690766.31663138</v>
+        <v>6690768.169657714</v>
       </c>
       <c r="S32" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
@@ -4378,7 +4391,7 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>12:39</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
@@ -4388,7 +4401,7 @@
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>12:39</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4415,10 +4428,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111596900</v>
+        <v>111596854</v>
       </c>
       <c r="B33" t="n">
-        <v>103288</v>
+        <v>98535</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4431,49 +4444,41 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>221144</v>
+        <v>222498</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Sw.</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
       <c r="N33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Björkmossen 230 m E, Upl</t>
+          <t>Björkmossen 296 m NE, Upl</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>654424.5006373823</v>
+        <v>654358.4983336662</v>
       </c>
       <c r="R33" t="n">
-        <v>6690762.135856108</v>
+        <v>6691018.199085277</v>
       </c>
       <c r="S33" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="T33" t="inlineStr">
         <is>
@@ -4502,7 +4507,7 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>13:07</t>
+          <t>15:13</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
@@ -4512,12 +4517,7 @@
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>13:08</t>
-        </is>
-      </c>
-      <c r="AC33" t="inlineStr">
-        <is>
-          <t>Uppskattat antal.</t>
+          <t>15:13</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4544,10 +4544,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111596831</v>
+        <v>111596844</v>
       </c>
       <c r="B34" t="n">
-        <v>89405</v>
+        <v>90684</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4560,37 +4560,45 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>1202</v>
+        <v>4368</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Dofttaggsvamp</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Hydnellum suaveolens</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
+          <t>(Scop.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>mycel</t>
+        </is>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="N34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Björkmossen 304 m N, Upl</t>
+          <t>Björkmossen 284 m E, Upl</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>654194.6095515667</v>
+        <v>654479.2965253602</v>
       </c>
       <c r="R34" t="n">
-        <v>6691076.210478476</v>
+        <v>6690758.510708655</v>
       </c>
       <c r="S34" t="n">
         <v>4</v>
@@ -4622,7 +4630,7 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>16:20</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
@@ -4632,7 +4640,12 @@
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>16:20</t>
+          <t>12:15</t>
+        </is>
+      </c>
+      <c r="AC34" t="inlineStr">
+        <is>
+          <t>Rätt stark men angenäm doft av bittermandel.</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4641,6 +4654,7 @@
       <c r="AE34" t="b">
         <v>0</v>
       </c>
+      <c r="AF34" t="inlineStr"/>
       <c r="AG34" t="b">
         <v>0</v>
       </c>
@@ -4659,10 +4673,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111596840</v>
+        <v>111596815</v>
       </c>
       <c r="B35" t="n">
-        <v>90687</v>
+        <v>56414</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4671,41 +4685,50 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>5964</v>
+        <v>100049</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Björkmossen 180 m NE, Upl</t>
+          <t>Björkmossen 262 m E, Upl</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>654329.1032540089</v>
+        <v>654455.0078743013</v>
       </c>
       <c r="R35" t="n">
-        <v>6690891.489788271</v>
+        <v>6690804.096419388</v>
       </c>
       <c r="S35" t="n">
         <v>4</v>
@@ -4737,7 +4760,7 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>14:58</t>
+          <t>17:46</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
@@ -4747,12 +4770,7 @@
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>14:58</t>
-        </is>
-      </c>
-      <c r="AC35" t="inlineStr">
-        <is>
-          <t>Fuktig mark med nästan bara gran.</t>
+          <t>17:46</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4895,10 +4913,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111596856</v>
+        <v>111596853</v>
       </c>
       <c r="B37" t="n">
-        <v>99413</v>
+        <v>98535</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4911,21 +4929,21 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>221235</v>
+        <v>222498</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4935,17 +4953,17 @@
       <c r="N37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Björkmossen 329 m E, Upl</t>
+          <t>Björkmossen 243 m NE, Upl</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>654521.5244157268</v>
+        <v>654327.0633065681</v>
       </c>
       <c r="R37" t="n">
-        <v>6690735.0113796</v>
+        <v>6690974.714669497</v>
       </c>
       <c r="S37" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="T37" t="inlineStr">
         <is>
@@ -4974,7 +4992,7 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>11:22</t>
+          <t>15:09</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
@@ -4984,7 +5002,7 @@
       </c>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>11:22</t>
+          <t>15:09</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -5011,10 +5029,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111596844</v>
+        <v>111596830</v>
       </c>
       <c r="B38" t="n">
-        <v>90684</v>
+        <v>89369</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -5023,52 +5041,44 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>4368</v>
+        <v>5447</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Dofttaggsvamp</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Hydnellum suaveolens</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) P. Karst.</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>mycel</t>
-        </is>
-      </c>
+          <t>(Schwein.) Murrill</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="N38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Björkmossen 284 m E, Upl</t>
+          <t>Björkmossen 277 m N, Upl</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>654479.2965253602</v>
+        <v>654228.1590436924</v>
       </c>
       <c r="R38" t="n">
-        <v>6690758.510708655</v>
+        <v>6691046.391933746</v>
       </c>
       <c r="S38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T38" t="inlineStr">
         <is>
@@ -5097,7 +5107,7 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>16:55</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
@@ -5107,12 +5117,7 @@
       </c>
       <c r="AB38" t="inlineStr">
         <is>
-          <t>12:15</t>
-        </is>
-      </c>
-      <c r="AC38" t="inlineStr">
-        <is>
-          <t>Rätt stark men angenäm doft av bittermandel.</t>
+          <t>16:55</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -5121,7 +5126,6 @@
       <c r="AE38" t="b">
         <v>0</v>
       </c>
-      <c r="AF38" t="inlineStr"/>
       <c r="AG38" t="b">
         <v>0</v>
       </c>
@@ -5140,10 +5144,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111596815</v>
+        <v>111596842</v>
       </c>
       <c r="B39" t="n">
-        <v>56414</v>
+        <v>90687</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -5152,50 +5156,49 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>100049</v>
+        <v>5964</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
         </is>
       </c>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Björkmossen 262 m E, Upl</t>
+          <t>Björkmossen 289 m NE, Upl</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>654455.0078743013</v>
+        <v>654341.4935720729</v>
       </c>
       <c r="R39" t="n">
-        <v>6690804.096419388</v>
+        <v>6691020.948906532</v>
       </c>
       <c r="S39" t="n">
         <v>4</v>
@@ -5227,7 +5230,7 @@
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>17:46</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
@@ -5237,7 +5240,12 @@
       </c>
       <c r="AB39" t="inlineStr">
         <is>
-          <t>17:46</t>
+          <t>17:15</t>
+        </is>
+      </c>
+      <c r="AC39" t="inlineStr">
+        <is>
+          <t>Fuktig mark med mest gran.</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -5264,10 +5272,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111596851</v>
+        <v>111596856</v>
       </c>
       <c r="B40" t="n">
-        <v>98535</v>
+        <v>99413</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5280,49 +5288,41 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>222498</v>
+        <v>221235</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+          <t>(L.) Bernh.</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
       <c r="N40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
-          <t>Björkmossen 266 m E, Upl</t>
+          <t>Björkmossen 329 m E, Upl</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>654461.5003862897</v>
+        <v>654521.5244157268</v>
       </c>
       <c r="R40" t="n">
-        <v>6690768.169657714</v>
+        <v>6690735.0113796</v>
       </c>
       <c r="S40" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="T40" t="inlineStr">
         <is>
@@ -5351,7 +5351,7 @@
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>11:22</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
@@ -5361,7 +5361,7 @@
       </c>
       <c r="AB40" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>11:22</t>
         </is>
       </c>
       <c r="AD40" t="b">

--- a/artfynd/A 29232-2023.xlsx
+++ b/artfynd/A 29232-2023.xlsx
@@ -3803,10 +3803,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111596843</v>
+        <v>111596897</v>
       </c>
       <c r="B28" t="n">
-        <v>90709</v>
+        <v>103288</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3815,49 +3815,50 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>5448</v>
+        <v>221144</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>100</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>fruktkroppar</t>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="N28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Björkmossen 282 m E, Upl</t>
+          <t>Björkmossen 227 m E, Upl</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>654476.3214109741</v>
+        <v>654422.181084068</v>
       </c>
       <c r="R28" t="n">
-        <v>6690758.38440035</v>
+        <v>6690769.97221576</v>
       </c>
       <c r="S28" t="n">
         <v>8</v>
@@ -3889,7 +3890,7 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>12:53</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
@@ -3899,12 +3900,12 @@
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>12:02</t>
+          <t>12:53</t>
         </is>
       </c>
       <c r="AC28" t="inlineStr">
         <is>
-          <t>Väldigt svag doft.</t>
+          <t>Uppskattat antal, helt tjockt med plantor så går ej att räkna.</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3931,10 +3932,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111596897</v>
+        <v>111596843</v>
       </c>
       <c r="B29" t="n">
-        <v>103288</v>
+        <v>90709</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3943,50 +3944,49 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>221144</v>
+        <v>5448</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(Schultz) nom.prov</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>20</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
+          <t>fruktkroppar</t>
         </is>
       </c>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
       <c r="N29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Björkmossen 227 m E, Upl</t>
+          <t>Björkmossen 282 m E, Upl</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>654422.181084068</v>
+        <v>654476.3214109741</v>
       </c>
       <c r="R29" t="n">
-        <v>6690769.97221576</v>
+        <v>6690758.38440035</v>
       </c>
       <c r="S29" t="n">
         <v>8</v>
@@ -4018,7 +4018,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>12:53</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
@@ -4028,12 +4028,12 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>12:53</t>
+          <t>12:02</t>
         </is>
       </c>
       <c r="AC29" t="inlineStr">
         <is>
-          <t>Uppskattat antal, helt tjockt med plantor så går ej att räkna.</t>
+          <t>Väldigt svag doft.</t>
         </is>
       </c>
       <c r="AD29" t="b">

--- a/artfynd/A 29232-2023.xlsx
+++ b/artfynd/A 29232-2023.xlsx
@@ -2724,7 +2724,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111596852</v>
+        <v>111596853</v>
       </c>
       <c r="B19" t="n">
         <v>98535</v>
@@ -2764,17 +2764,17 @@
       <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Björkmossen 202 m E, Upl</t>
+          <t>Björkmossen 243 m NE, Upl</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>654397.1701999516</v>
+        <v>654327.0633065681</v>
       </c>
       <c r="R19" t="n">
-        <v>6690785.772233884</v>
+        <v>6690974.714669497</v>
       </c>
       <c r="S19" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -2803,7 +2803,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>13:37</t>
+          <t>15:09</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2813,7 +2813,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>13:37</t>
+          <t>15:09</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2840,10 +2840,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111596840</v>
+        <v>111596833</v>
       </c>
       <c r="B20" t="n">
-        <v>90687</v>
+        <v>89601</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2852,25 +2852,25 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>5964</v>
+        <v>1106</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Vågticka</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Osteina undosa</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>(Peck) Zmitr.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2879,14 +2879,14 @@
       <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Björkmossen 180 m NE, Upl</t>
+          <t>Björkmossen 319 m N, Upl</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>654329.1032540089</v>
+        <v>654189.5598878536</v>
       </c>
       <c r="R20" t="n">
-        <v>6690891.489788271</v>
+        <v>6691089.881082441</v>
       </c>
       <c r="S20" t="n">
         <v>4</v>
@@ -2918,7 +2918,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>14:58</t>
+          <t>16:24</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2928,12 +2928,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>14:58</t>
-        </is>
-      </c>
-      <c r="AC20" t="inlineStr">
-        <is>
-          <t>Fuktig mark med nästan bara gran.</t>
+          <t>16:24</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2960,10 +2955,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111596867</v>
+        <v>111596830</v>
       </c>
       <c r="B21" t="n">
-        <v>99413</v>
+        <v>89369</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2976,49 +2971,40 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>221235</v>
+        <v>5447</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+          <t>(Schwein.) Murrill</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
       <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Björkmossen 254 m N, Upl</t>
+          <t>Björkmossen 277 m N, Upl</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>654194.2912932655</v>
+        <v>654228.1590436924</v>
       </c>
       <c r="R21" t="n">
-        <v>6691025.120983994</v>
+        <v>6691046.391933746</v>
       </c>
       <c r="S21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -3047,7 +3033,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>16:08</t>
+          <t>16:55</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -3057,7 +3043,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>16:09</t>
+          <t>16:55</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3084,10 +3070,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111596832</v>
+        <v>111596895</v>
       </c>
       <c r="B22" t="n">
-        <v>89601</v>
+        <v>103288</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3096,44 +3082,53 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>1106</v>
+        <v>221144</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Vågticka</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Osteina undosa</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Peck) Zmitr.</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
+          <t>Sw.</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Björkmossen 139 m NE, Upl</t>
+          <t>Björkmossen 238 m E, Upl</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>654305.2642562862</v>
+        <v>654433.1528313066</v>
       </c>
       <c r="R22" t="n">
-        <v>6690856.260986242</v>
+        <v>6690768.95009726</v>
       </c>
       <c r="S22" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -3162,7 +3157,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>14:22</t>
+          <t>12:48</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -3172,7 +3167,12 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>14:22</t>
+          <t>12:48</t>
+        </is>
+      </c>
+      <c r="AC22" t="inlineStr">
+        <is>
+          <t>Cirka.</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3199,10 +3199,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111596833</v>
+        <v>111596818</v>
       </c>
       <c r="B23" t="n">
-        <v>89601</v>
+        <v>57552</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3211,44 +3211,50 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>1106</v>
+        <v>208245</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Vågticka</t>
+          <t>Vanlig padda</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Osteina undosa</t>
+          <t>Bufo bufo</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Peck) Zmitr.</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Björkmossen 319 m N, Upl</t>
+          <t>Björkmossen 269 m N, Upl</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>654189.5598878536</v>
+        <v>654176.2874868776</v>
       </c>
       <c r="R23" t="n">
-        <v>6691089.881082441</v>
+        <v>6691039.730467042</v>
       </c>
       <c r="S23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -3277,7 +3283,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>16:24</t>
+          <t>16:12</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3287,7 +3293,7 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>16:24</t>
+          <t>16:12</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3314,10 +3320,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111596818</v>
+        <v>111596840</v>
       </c>
       <c r="B24" t="n">
-        <v>57552</v>
+        <v>90687</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3330,46 +3336,40 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>208245</v>
+        <v>5964</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Vanlig padda</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Bufo bufo</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(L.:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Björkmossen 269 m N, Upl</t>
+          <t>Björkmossen 180 m NE, Upl</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>654176.2874868776</v>
+        <v>654329.1032540089</v>
       </c>
       <c r="R24" t="n">
-        <v>6691039.730467042</v>
+        <v>6690891.489788271</v>
       </c>
       <c r="S24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -3398,7 +3398,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>16:12</t>
+          <t>14:58</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -3408,7 +3408,12 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>16:12</t>
+          <t>14:58</t>
+        </is>
+      </c>
+      <c r="AC24" t="inlineStr">
+        <is>
+          <t>Fuktig mark med nästan bara gran.</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3435,10 +3440,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111596831</v>
+        <v>111596842</v>
       </c>
       <c r="B25" t="n">
-        <v>89405</v>
+        <v>90687</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3447,41 +3452,49 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>1202</v>
+        <v>5964</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
+          <t>(L.:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Björkmossen 304 m N, Upl</t>
+          <t>Björkmossen 289 m NE, Upl</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>654194.6095515667</v>
+        <v>654341.4935720729</v>
       </c>
       <c r="R25" t="n">
-        <v>6691076.210478476</v>
+        <v>6691020.948906532</v>
       </c>
       <c r="S25" t="n">
         <v>4</v>
@@ -3513,7 +3526,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>16:20</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3523,7 +3536,12 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>16:20</t>
+          <t>17:15</t>
+        </is>
+      </c>
+      <c r="AC25" t="inlineStr">
+        <is>
+          <t>Fuktig mark med mest gran.</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3550,10 +3568,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111596859</v>
+        <v>111596900</v>
       </c>
       <c r="B26" t="n">
-        <v>99413</v>
+        <v>103288</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3566,26 +3584,26 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>221235</v>
+        <v>221144</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>50</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -3598,17 +3616,17 @@
       <c r="N26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Björkmossen 311 m SE, Upl</t>
+          <t>Björkmossen 230 m E, Upl</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>654503.0812791266</v>
+        <v>654424.5006373823</v>
       </c>
       <c r="R26" t="n">
-        <v>6690724.805518131</v>
+        <v>6690762.135856108</v>
       </c>
       <c r="S26" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -3637,7 +3655,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>11:25</t>
+          <t>13:07</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3647,7 +3665,12 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>11:27</t>
+          <t>13:08</t>
+        </is>
+      </c>
+      <c r="AC26" t="inlineStr">
+        <is>
+          <t>Uppskattat antal.</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3674,10 +3697,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111596900</v>
+        <v>111596831</v>
       </c>
       <c r="B27" t="n">
-        <v>103288</v>
+        <v>89405</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3686,53 +3709,44 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>221144</v>
+        <v>1202</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Sw.</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
       <c r="N27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Björkmossen 230 m E, Upl</t>
+          <t>Björkmossen 304 m N, Upl</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>654424.5006373823</v>
+        <v>654194.6095515667</v>
       </c>
       <c r="R27" t="n">
-        <v>6690762.135856108</v>
+        <v>6691076.210478476</v>
       </c>
       <c r="S27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -3761,7 +3775,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>13:07</t>
+          <t>16:20</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -3771,12 +3785,7 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>13:08</t>
-        </is>
-      </c>
-      <c r="AC27" t="inlineStr">
-        <is>
-          <t>Uppskattat antal.</t>
+          <t>16:20</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3803,10 +3812,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111596897</v>
+        <v>111596856</v>
       </c>
       <c r="B28" t="n">
-        <v>103288</v>
+        <v>99413</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3819,49 +3828,41 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>221144</v>
+        <v>221235</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Sw.</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+          <t>(L.) Bernh.</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
       <c r="N28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Björkmossen 227 m E, Upl</t>
+          <t>Björkmossen 329 m E, Upl</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>654422.181084068</v>
+        <v>654521.5244157268</v>
       </c>
       <c r="R28" t="n">
-        <v>6690769.97221576</v>
+        <v>6690735.0113796</v>
       </c>
       <c r="S28" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -3890,7 +3891,7 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>12:53</t>
+          <t>11:22</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
@@ -3900,12 +3901,7 @@
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>12:53</t>
-        </is>
-      </c>
-      <c r="AC28" t="inlineStr">
-        <is>
-          <t>Uppskattat antal, helt tjockt med plantor så går ej att räkna.</t>
+          <t>11:22</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3932,10 +3928,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111596843</v>
+        <v>111596825</v>
       </c>
       <c r="B29" t="n">
-        <v>90709</v>
+        <v>89183</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3944,52 +3940,44 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>5448</v>
+        <v>3215</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="N29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Björkmossen 282 m E, Upl</t>
+          <t>Björkmossen 246 m E, Upl</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>654476.3214109741</v>
+        <v>654441.2125153403</v>
       </c>
       <c r="R29" t="n">
-        <v>6690758.38440035</v>
+        <v>6690766.31663138</v>
       </c>
       <c r="S29" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
@@ -4018,7 +4006,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>12:39</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
@@ -4028,12 +4016,7 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>12:02</t>
-        </is>
-      </c>
-      <c r="AC29" t="inlineStr">
-        <is>
-          <t>Väldigt svag doft.</t>
+          <t>12:39</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -4060,10 +4043,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111596825</v>
+        <v>111596815</v>
       </c>
       <c r="B30" t="n">
-        <v>89183</v>
+        <v>56414</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -4072,44 +4055,53 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>3215</v>
+        <v>100049</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Björkmossen 246 m E, Upl</t>
+          <t>Björkmossen 262 m E, Upl</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>654441.2125153403</v>
+        <v>654455.0078743013</v>
       </c>
       <c r="R30" t="n">
-        <v>6690766.31663138</v>
+        <v>6690804.096419388</v>
       </c>
       <c r="S30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
@@ -4138,7 +4130,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>12:39</t>
+          <t>17:46</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
@@ -4148,7 +4140,7 @@
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>12:39</t>
+          <t>17:46</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -4175,10 +4167,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111596895</v>
+        <v>111596844</v>
       </c>
       <c r="B31" t="n">
-        <v>103288</v>
+        <v>90684</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4187,53 +4179,52 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>221144</v>
+        <v>4368</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Dofttaggsvamp</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Hydnellum suaveolens</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(Scop.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
+          <t>mycel</t>
         </is>
       </c>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
       <c r="N31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Björkmossen 238 m E, Upl</t>
+          <t>Björkmossen 284 m E, Upl</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>654433.1528313066</v>
+        <v>654479.2965253602</v>
       </c>
       <c r="R31" t="n">
-        <v>6690768.95009726</v>
+        <v>6690758.510708655</v>
       </c>
       <c r="S31" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
@@ -4262,7 +4253,7 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>12:48</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
@@ -4272,12 +4263,12 @@
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>12:48</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="AC31" t="inlineStr">
         <is>
-          <t>Cirka.</t>
+          <t>Rätt stark men angenäm doft av bittermandel.</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4286,6 +4277,7 @@
       <c r="AE31" t="b">
         <v>0</v>
       </c>
+      <c r="AF31" t="inlineStr"/>
       <c r="AG31" t="b">
         <v>0</v>
       </c>
@@ -4304,10 +4296,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111596851</v>
+        <v>111596843</v>
       </c>
       <c r="B32" t="n">
-        <v>98535</v>
+        <v>90709</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4316,53 +4308,52 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>222498</v>
+        <v>5448</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Schultz) nom.prov</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>20</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
+          <t>fruktkroppar</t>
         </is>
       </c>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
       <c r="N32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Björkmossen 266 m E, Upl</t>
+          <t>Björkmossen 282 m E, Upl</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>654461.5003862897</v>
+        <v>654476.3214109741</v>
       </c>
       <c r="R32" t="n">
-        <v>6690768.169657714</v>
+        <v>6690758.38440035</v>
       </c>
       <c r="S32" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
@@ -4391,7 +4382,7 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
@@ -4401,7 +4392,12 @@
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>12:02</t>
+        </is>
+      </c>
+      <c r="AC32" t="inlineStr">
+        <is>
+          <t>Väldigt svag doft.</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4428,10 +4424,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111596854</v>
+        <v>111596832</v>
       </c>
       <c r="B33" t="n">
-        <v>98535</v>
+        <v>89601</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4440,45 +4436,44 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>222498</v>
+        <v>1106</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Vågticka</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Osteina undosa</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Peck) Zmitr.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
       <c r="N33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Björkmossen 296 m NE, Upl</t>
+          <t>Björkmossen 139 m NE, Upl</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>654358.4983336662</v>
+        <v>654305.2642562862</v>
       </c>
       <c r="R33" t="n">
-        <v>6691018.199085277</v>
+        <v>6690856.260986242</v>
       </c>
       <c r="S33" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="T33" t="inlineStr">
         <is>
@@ -4507,7 +4502,7 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>15:13</t>
+          <t>14:22</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
@@ -4517,7 +4512,7 @@
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>15:13</t>
+          <t>14:22</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4544,10 +4539,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111596844</v>
+        <v>111596859</v>
       </c>
       <c r="B34" t="n">
-        <v>90684</v>
+        <v>99413</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4556,52 +4551,53 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>4368</v>
+        <v>221235</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Dofttaggsvamp</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Hydnellum suaveolens</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) P. Karst.</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>15</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>mycel</t>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="N34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Björkmossen 284 m E, Upl</t>
+          <t>Björkmossen 311 m SE, Upl</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>654479.2965253602</v>
+        <v>654503.0812791266</v>
       </c>
       <c r="R34" t="n">
-        <v>6690758.510708655</v>
+        <v>6690724.805518131</v>
       </c>
       <c r="S34" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="T34" t="inlineStr">
         <is>
@@ -4630,7 +4626,7 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>11:25</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
@@ -4640,12 +4636,7 @@
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>12:15</t>
-        </is>
-      </c>
-      <c r="AC34" t="inlineStr">
-        <is>
-          <t>Rätt stark men angenäm doft av bittermandel.</t>
+          <t>11:27</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4654,7 +4645,6 @@
       <c r="AE34" t="b">
         <v>0</v>
       </c>
-      <c r="AF34" t="inlineStr"/>
       <c r="AG34" t="b">
         <v>0</v>
       </c>
@@ -4673,10 +4663,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111596815</v>
+        <v>111596852</v>
       </c>
       <c r="B35" t="n">
-        <v>56414</v>
+        <v>98535</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4685,53 +4675,45 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>100049</v>
+        <v>222498</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Björkmossen 262 m E, Upl</t>
+          <t>Björkmossen 202 m E, Upl</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>654455.0078743013</v>
+        <v>654397.1701999516</v>
       </c>
       <c r="R35" t="n">
-        <v>6690804.096419388</v>
+        <v>6690785.772233884</v>
       </c>
       <c r="S35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T35" t="inlineStr">
         <is>
@@ -4760,7 +4742,7 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>17:46</t>
+          <t>13:37</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
@@ -4770,7 +4752,7 @@
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>17:46</t>
+          <t>13:37</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4797,10 +4779,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111596850</v>
+        <v>111596867</v>
       </c>
       <c r="B36" t="n">
-        <v>98535</v>
+        <v>99413</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4813,38 +4795,46 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>222498</v>
+        <v>221235</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
+          <t>(L.) Bernh.</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
       <c r="N36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Björkmossen 311 m SE, Upl</t>
+          <t>Björkmossen 254 m N, Upl</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>654503.0392390501</v>
+        <v>654194.2912932655</v>
       </c>
       <c r="R36" t="n">
-        <v>6690725.795596425</v>
+        <v>6691025.120983994</v>
       </c>
       <c r="S36" t="n">
         <v>4</v>
@@ -4876,7 +4866,7 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>11:27</t>
+          <t>16:08</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
@@ -4886,7 +4876,7 @@
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>11:27</t>
+          <t>16:09</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4913,7 +4903,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111596853</v>
+        <v>111596850</v>
       </c>
       <c r="B37" t="n">
         <v>98535</v>
@@ -4953,17 +4943,17 @@
       <c r="N37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Björkmossen 243 m NE, Upl</t>
+          <t>Björkmossen 311 m SE, Upl</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>654327.0633065681</v>
+        <v>654503.0392390501</v>
       </c>
       <c r="R37" t="n">
-        <v>6690974.714669497</v>
+        <v>6690725.795596425</v>
       </c>
       <c r="S37" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="T37" t="inlineStr">
         <is>
@@ -4992,7 +4982,7 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>15:09</t>
+          <t>11:27</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
@@ -5002,7 +4992,7 @@
       </c>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>15:09</t>
+          <t>11:27</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -5029,10 +5019,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111596830</v>
+        <v>111596897</v>
       </c>
       <c r="B38" t="n">
-        <v>89369</v>
+        <v>103288</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -5045,40 +5035,49 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>5447</v>
+        <v>221144</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
+          <t>Sw.</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="N38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Björkmossen 277 m N, Upl</t>
+          <t>Björkmossen 227 m E, Upl</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>654228.1590436924</v>
+        <v>654422.181084068</v>
       </c>
       <c r="R38" t="n">
-        <v>6691046.391933746</v>
+        <v>6690769.97221576</v>
       </c>
       <c r="S38" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="T38" t="inlineStr">
         <is>
@@ -5107,7 +5106,7 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>16:55</t>
+          <t>12:53</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
@@ -5117,7 +5116,12 @@
       </c>
       <c r="AB38" t="inlineStr">
         <is>
-          <t>16:55</t>
+          <t>12:53</t>
+        </is>
+      </c>
+      <c r="AC38" t="inlineStr">
+        <is>
+          <t>Uppskattat antal, helt tjockt med plantor så går ej att räkna.</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -5144,10 +5148,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111596842</v>
+        <v>111596854</v>
       </c>
       <c r="B39" t="n">
-        <v>90687</v>
+        <v>98535</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -5160,48 +5164,41 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>5964</v>
+        <v>222498</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="N39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Björkmossen 289 m NE, Upl</t>
+          <t>Björkmossen 296 m NE, Upl</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>654341.4935720729</v>
+        <v>654358.4983336662</v>
       </c>
       <c r="R39" t="n">
-        <v>6691020.948906532</v>
+        <v>6691018.199085277</v>
       </c>
       <c r="S39" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="T39" t="inlineStr">
         <is>
@@ -5230,7 +5227,7 @@
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>17:15</t>
+          <t>15:13</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
@@ -5240,12 +5237,7 @@
       </c>
       <c r="AB39" t="inlineStr">
         <is>
-          <t>17:15</t>
-        </is>
-      </c>
-      <c r="AC39" t="inlineStr">
-        <is>
-          <t>Fuktig mark med mest gran.</t>
+          <t>15:13</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -5272,10 +5264,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111596856</v>
+        <v>111596851</v>
       </c>
       <c r="B40" t="n">
-        <v>99413</v>
+        <v>98535</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5288,41 +5280,49 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>221235</v>
+        <v>222498</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
       <c r="N40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
-          <t>Björkmossen 329 m E, Upl</t>
+          <t>Björkmossen 266 m E, Upl</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>654521.5244157268</v>
+        <v>654461.5003862897</v>
       </c>
       <c r="R40" t="n">
-        <v>6690735.0113796</v>
+        <v>6690768.169657714</v>
       </c>
       <c r="S40" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="T40" t="inlineStr">
         <is>
@@ -5351,7 +5351,7 @@
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>11:22</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
@@ -5361,7 +5361,7 @@
       </c>
       <c r="AB40" t="inlineStr">
         <is>
-          <t>11:22</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="AD40" t="b">

--- a/artfynd/A 29232-2023.xlsx
+++ b/artfynd/A 29232-2023.xlsx
@@ -2724,10 +2724,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111596853</v>
+        <v>111596818</v>
       </c>
       <c r="B19" t="n">
-        <v>98535</v>
+        <v>57552</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2740,41 +2740,46 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>222498</v>
+        <v>208245</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Vanlig padda</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Bufo bufo</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Björkmossen 243 m NE, Upl</t>
+          <t>Björkmossen 269 m N, Upl</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>654327.0633065681</v>
+        <v>654176.2874868776</v>
       </c>
       <c r="R19" t="n">
-        <v>6690974.714669497</v>
+        <v>6691039.730467042</v>
       </c>
       <c r="S19" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -2803,7 +2808,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>15:09</t>
+          <t>16:12</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2813,7 +2818,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>15:09</t>
+          <t>16:12</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2840,10 +2845,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111596833</v>
+        <v>111596815</v>
       </c>
       <c r="B20" t="n">
-        <v>89601</v>
+        <v>56414</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2852,41 +2857,50 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>1106</v>
+        <v>100049</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Vågticka</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Osteina undosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Peck) Zmitr.</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Björkmossen 319 m N, Upl</t>
+          <t>Björkmossen 262 m E, Upl</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>654189.5598878536</v>
+        <v>654455.0078743013</v>
       </c>
       <c r="R20" t="n">
-        <v>6691089.881082441</v>
+        <v>6690804.096419388</v>
       </c>
       <c r="S20" t="n">
         <v>4</v>
@@ -2918,7 +2932,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>16:24</t>
+          <t>17:46</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2928,7 +2942,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>16:24</t>
+          <t>17:46</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2955,10 +2969,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111596830</v>
+        <v>111596844</v>
       </c>
       <c r="B21" t="n">
-        <v>89369</v>
+        <v>90684</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2967,44 +2981,52 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>5447</v>
+        <v>4368</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Dofttaggsvamp</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Hydnellum suaveolens</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
+          <t>(Scop.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>mycel</t>
+        </is>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Björkmossen 277 m N, Upl</t>
+          <t>Björkmossen 284 m E, Upl</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>654228.1590436924</v>
+        <v>654479.2965253602</v>
       </c>
       <c r="R21" t="n">
-        <v>6691046.391933746</v>
+        <v>6690758.510708655</v>
       </c>
       <c r="S21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -3033,7 +3055,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>16:55</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -3043,7 +3065,12 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>16:55</t>
+          <t>12:15</t>
+        </is>
+      </c>
+      <c r="AC21" t="inlineStr">
+        <is>
+          <t>Rätt stark men angenäm doft av bittermandel.</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3052,6 +3079,7 @@
       <c r="AE21" t="b">
         <v>0</v>
       </c>
+      <c r="AF21" t="inlineStr"/>
       <c r="AG21" t="b">
         <v>0</v>
       </c>
@@ -3070,10 +3098,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111596895</v>
+        <v>111596833</v>
       </c>
       <c r="B22" t="n">
-        <v>103288</v>
+        <v>89601</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3082,53 +3110,44 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>221144</v>
+        <v>1106</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Vågticka</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Osteina undosa</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Sw.</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+          <t>(Peck) Zmitr.</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
       <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Björkmossen 238 m E, Upl</t>
+          <t>Björkmossen 319 m N, Upl</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>654433.1528313066</v>
+        <v>654189.5598878536</v>
       </c>
       <c r="R22" t="n">
-        <v>6690768.95009726</v>
+        <v>6691089.881082441</v>
       </c>
       <c r="S22" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -3157,7 +3176,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>12:48</t>
+          <t>16:24</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -3167,12 +3186,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>12:48</t>
-        </is>
-      </c>
-      <c r="AC22" t="inlineStr">
-        <is>
-          <t>Cirka.</t>
+          <t>16:24</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3199,10 +3213,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111596818</v>
+        <v>111596856</v>
       </c>
       <c r="B23" t="n">
-        <v>57552</v>
+        <v>99413</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3215,46 +3229,41 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>208245</v>
+        <v>221235</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Vanlig padda</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Bufo bufo</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(L.) Bernh.</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Björkmossen 269 m N, Upl</t>
+          <t>Björkmossen 329 m E, Upl</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>654176.2874868776</v>
+        <v>654521.5244157268</v>
       </c>
       <c r="R23" t="n">
-        <v>6691039.730467042</v>
+        <v>6690735.0113796</v>
       </c>
       <c r="S23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -3283,7 +3292,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>16:12</t>
+          <t>11:22</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3293,7 +3302,7 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>16:12</t>
+          <t>11:22</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3320,10 +3329,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111596840</v>
+        <v>111596830</v>
       </c>
       <c r="B24" t="n">
-        <v>90687</v>
+        <v>89369</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3336,21 +3345,21 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>5964</v>
+        <v>5447</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3359,17 +3368,17 @@
       <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Björkmossen 180 m NE, Upl</t>
+          <t>Björkmossen 277 m N, Upl</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>654329.1032540089</v>
+        <v>654228.1590436924</v>
       </c>
       <c r="R24" t="n">
-        <v>6690891.489788271</v>
+        <v>6691046.391933746</v>
       </c>
       <c r="S24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -3398,7 +3407,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>14:58</t>
+          <t>16:55</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -3408,12 +3417,7 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>14:58</t>
-        </is>
-      </c>
-      <c r="AC24" t="inlineStr">
-        <is>
-          <t>Fuktig mark med nästan bara gran.</t>
+          <t>16:55</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3440,7 +3444,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111596842</v>
+        <v>111596840</v>
       </c>
       <c r="B25" t="n">
         <v>90687</v>
@@ -3473,28 +3477,20 @@
           <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Björkmossen 289 m NE, Upl</t>
+          <t>Björkmossen 180 m NE, Upl</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>654341.4935720729</v>
+        <v>654329.1032540089</v>
       </c>
       <c r="R25" t="n">
-        <v>6691020.948906532</v>
+        <v>6690891.489788271</v>
       </c>
       <c r="S25" t="n">
         <v>4</v>
@@ -3526,7 +3522,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>17:15</t>
+          <t>14:58</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3536,12 +3532,12 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>17:15</t>
+          <t>14:58</t>
         </is>
       </c>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>Fuktig mark med mest gran.</t>
+          <t>Fuktig mark med nästan bara gran.</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3568,10 +3564,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111596900</v>
+        <v>111596859</v>
       </c>
       <c r="B26" t="n">
-        <v>103288</v>
+        <v>99413</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3584,26 +3580,26 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>221144</v>
+        <v>221235</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>15</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -3616,17 +3612,17 @@
       <c r="N26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Björkmossen 230 m E, Upl</t>
+          <t>Björkmossen 311 m SE, Upl</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>654424.5006373823</v>
+        <v>654503.0812791266</v>
       </c>
       <c r="R26" t="n">
-        <v>6690762.135856108</v>
+        <v>6690724.805518131</v>
       </c>
       <c r="S26" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -3655,7 +3651,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>13:07</t>
+          <t>11:25</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3665,12 +3661,7 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>13:08</t>
-        </is>
-      </c>
-      <c r="AC26" t="inlineStr">
-        <is>
-          <t>Uppskattat antal.</t>
+          <t>11:27</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3697,10 +3688,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111596831</v>
+        <v>111596843</v>
       </c>
       <c r="B27" t="n">
-        <v>89405</v>
+        <v>90709</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3713,40 +3704,48 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>1202</v>
+        <v>5448</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
+          <t>(Schultz) nom.prov</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="N27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Björkmossen 304 m N, Upl</t>
+          <t>Björkmossen 282 m E, Upl</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>654194.6095515667</v>
+        <v>654476.3214109741</v>
       </c>
       <c r="R27" t="n">
-        <v>6691076.210478476</v>
+        <v>6690758.38440035</v>
       </c>
       <c r="S27" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -3775,7 +3774,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>16:20</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -3785,7 +3784,12 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>16:20</t>
+          <t>12:02</t>
+        </is>
+      </c>
+      <c r="AC27" t="inlineStr">
+        <is>
+          <t>Väldigt svag doft.</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3812,10 +3816,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111596856</v>
+        <v>111596832</v>
       </c>
       <c r="B28" t="n">
-        <v>99413</v>
+        <v>89601</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3824,42 +3828,41 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>221235</v>
+        <v>1106</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Vågticka</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Osteina undosa</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>(Peck) Zmitr.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
       <c r="N28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Björkmossen 329 m E, Upl</t>
+          <t>Björkmossen 139 m NE, Upl</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>654521.5244157268</v>
+        <v>654305.2642562862</v>
       </c>
       <c r="R28" t="n">
-        <v>6690735.0113796</v>
+        <v>6690856.260986242</v>
       </c>
       <c r="S28" t="n">
         <v>4</v>
@@ -3891,7 +3894,7 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>11:22</t>
+          <t>14:22</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
@@ -3901,7 +3904,7 @@
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>11:22</t>
+          <t>14:22</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3928,10 +3931,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111596825</v>
+        <v>111596853</v>
       </c>
       <c r="B29" t="n">
-        <v>89183</v>
+        <v>98535</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3944,40 +3947,41 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>3215</v>
+        <v>222498</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="N29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Björkmossen 246 m E, Upl</t>
+          <t>Björkmossen 243 m NE, Upl</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>654441.2125153403</v>
+        <v>654327.0633065681</v>
       </c>
       <c r="R29" t="n">
-        <v>6690766.31663138</v>
+        <v>6690974.714669497</v>
       </c>
       <c r="S29" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
@@ -4006,7 +4010,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>12:39</t>
+          <t>15:09</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
@@ -4016,7 +4020,7 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>12:39</t>
+          <t>15:09</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -4043,10 +4047,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111596815</v>
+        <v>111596897</v>
       </c>
       <c r="B30" t="n">
-        <v>56414</v>
+        <v>103288</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -4055,53 +4059,53 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>100049</v>
+        <v>221144</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Björkmossen 262 m E, Upl</t>
+          <t>Björkmossen 227 m E, Upl</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>654455.0078743013</v>
+        <v>654422.181084068</v>
       </c>
       <c r="R30" t="n">
-        <v>6690804.096419388</v>
+        <v>6690769.97221576</v>
       </c>
       <c r="S30" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
@@ -4130,7 +4134,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>17:46</t>
+          <t>12:53</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
@@ -4140,7 +4144,12 @@
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>17:46</t>
+          <t>12:53</t>
+        </is>
+      </c>
+      <c r="AC30" t="inlineStr">
+        <is>
+          <t>Uppskattat antal, helt tjockt med plantor så går ej att räkna.</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -4167,10 +4176,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111596844</v>
+        <v>111596895</v>
       </c>
       <c r="B31" t="n">
-        <v>90684</v>
+        <v>103288</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4179,52 +4188,53 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>4368</v>
+        <v>221144</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Dofttaggsvamp</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Hydnellum suaveolens</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) P. Karst.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>30</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>mycel</t>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="N31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Björkmossen 284 m E, Upl</t>
+          <t>Björkmossen 238 m E, Upl</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>654479.2965253602</v>
+        <v>654433.1528313066</v>
       </c>
       <c r="R31" t="n">
-        <v>6690758.510708655</v>
+        <v>6690768.95009726</v>
       </c>
       <c r="S31" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
@@ -4253,7 +4263,7 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>12:48</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
@@ -4263,12 +4273,12 @@
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>12:48</t>
         </is>
       </c>
       <c r="AC31" t="inlineStr">
         <is>
-          <t>Rätt stark men angenäm doft av bittermandel.</t>
+          <t>Cirka.</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4277,7 +4287,6 @@
       <c r="AE31" t="b">
         <v>0</v>
       </c>
-      <c r="AF31" t="inlineStr"/>
       <c r="AG31" t="b">
         <v>0</v>
       </c>
@@ -4296,10 +4305,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111596843</v>
+        <v>111596850</v>
       </c>
       <c r="B32" t="n">
-        <v>90709</v>
+        <v>98535</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4308,52 +4317,45 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>5448</v>
+        <v>222498</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="N32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Björkmossen 282 m E, Upl</t>
+          <t>Björkmossen 311 m SE, Upl</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>654476.3214109741</v>
+        <v>654503.0392390501</v>
       </c>
       <c r="R32" t="n">
-        <v>6690758.38440035</v>
+        <v>6690725.795596425</v>
       </c>
       <c r="S32" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
@@ -4382,7 +4384,7 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>11:27</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
@@ -4392,12 +4394,7 @@
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>12:02</t>
-        </is>
-      </c>
-      <c r="AC32" t="inlineStr">
-        <is>
-          <t>Väldigt svag doft.</t>
+          <t>11:27</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4424,10 +4421,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111596832</v>
+        <v>111596842</v>
       </c>
       <c r="B33" t="n">
-        <v>89601</v>
+        <v>90687</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4436,41 +4433,49 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>1106</v>
+        <v>5964</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Vågticka</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Osteina undosa</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Peck) Zmitr.</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
+          <t>(L.:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="N33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Björkmossen 139 m NE, Upl</t>
+          <t>Björkmossen 289 m NE, Upl</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>654305.2642562862</v>
+        <v>654341.4935720729</v>
       </c>
       <c r="R33" t="n">
-        <v>6690856.260986242</v>
+        <v>6691020.948906532</v>
       </c>
       <c r="S33" t="n">
         <v>4</v>
@@ -4502,7 +4507,7 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>14:22</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
@@ -4512,7 +4517,12 @@
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>14:22</t>
+          <t>17:15</t>
+        </is>
+      </c>
+      <c r="AC33" t="inlineStr">
+        <is>
+          <t>Fuktig mark med mest gran.</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4539,10 +4549,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111596859</v>
+        <v>111596854</v>
       </c>
       <c r="B34" t="n">
-        <v>99413</v>
+        <v>98535</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4555,49 +4565,41 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>221235</v>
+        <v>222498</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
       <c r="N34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Björkmossen 311 m SE, Upl</t>
+          <t>Björkmossen 296 m NE, Upl</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>654503.0812791266</v>
+        <v>654358.4983336662</v>
       </c>
       <c r="R34" t="n">
-        <v>6690724.805518131</v>
+        <v>6691018.199085277</v>
       </c>
       <c r="S34" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="T34" t="inlineStr">
         <is>
@@ -4626,7 +4628,7 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>11:25</t>
+          <t>15:13</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
@@ -4636,7 +4638,7 @@
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>11:27</t>
+          <t>15:13</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4663,10 +4665,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111596852</v>
+        <v>111596825</v>
       </c>
       <c r="B35" t="n">
-        <v>98535</v>
+        <v>89183</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4679,38 +4681,37 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>222498</v>
+        <v>3215</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
       <c r="N35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Björkmossen 202 m E, Upl</t>
+          <t>Björkmossen 246 m E, Upl</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>654397.1701999516</v>
+        <v>654441.2125153403</v>
       </c>
       <c r="R35" t="n">
-        <v>6690785.772233884</v>
+        <v>6690766.31663138</v>
       </c>
       <c r="S35" t="n">
         <v>3</v>
@@ -4742,7 +4743,7 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>13:37</t>
+          <t>12:39</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
@@ -4752,7 +4753,7 @@
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>13:37</t>
+          <t>12:39</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4779,10 +4780,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111596867</v>
+        <v>111596900</v>
       </c>
       <c r="B36" t="n">
-        <v>99413</v>
+        <v>103288</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4795,26 +4796,26 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>221235</v>
+        <v>221144</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>50</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -4827,17 +4828,17 @@
       <c r="N36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Björkmossen 254 m N, Upl</t>
+          <t>Björkmossen 230 m E, Upl</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>654194.2912932655</v>
+        <v>654424.5006373823</v>
       </c>
       <c r="R36" t="n">
-        <v>6691025.120983994</v>
+        <v>6690762.135856108</v>
       </c>
       <c r="S36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T36" t="inlineStr">
         <is>
@@ -4866,7 +4867,7 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>16:08</t>
+          <t>13:07</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
@@ -4876,7 +4877,12 @@
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>16:09</t>
+          <t>13:08</t>
+        </is>
+      </c>
+      <c r="AC36" t="inlineStr">
+        <is>
+          <t>Uppskattat antal.</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4903,10 +4909,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111596850</v>
+        <v>111596831</v>
       </c>
       <c r="B37" t="n">
-        <v>98535</v>
+        <v>89405</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4915,42 +4921,41 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>222498</v>
+        <v>1202</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
       <c r="N37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Björkmossen 311 m SE, Upl</t>
+          <t>Björkmossen 304 m N, Upl</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>654503.0392390501</v>
+        <v>654194.6095515667</v>
       </c>
       <c r="R37" t="n">
-        <v>6690725.795596425</v>
+        <v>6691076.210478476</v>
       </c>
       <c r="S37" t="n">
         <v>4</v>
@@ -4982,7 +4987,7 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>11:27</t>
+          <t>16:20</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
@@ -4992,7 +4997,7 @@
       </c>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>11:27</t>
+          <t>16:20</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -5019,10 +5024,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111596897</v>
+        <v>111596851</v>
       </c>
       <c r="B38" t="n">
-        <v>103288</v>
+        <v>98535</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -5035,26 +5040,26 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>221144</v>
+        <v>222498</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -5067,17 +5072,17 @@
       <c r="N38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Björkmossen 227 m E, Upl</t>
+          <t>Björkmossen 266 m E, Upl</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>654422.181084068</v>
+        <v>654461.5003862897</v>
       </c>
       <c r="R38" t="n">
-        <v>6690769.97221576</v>
+        <v>6690768.169657714</v>
       </c>
       <c r="S38" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="T38" t="inlineStr">
         <is>
@@ -5106,7 +5111,7 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>12:53</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
@@ -5116,12 +5121,7 @@
       </c>
       <c r="AB38" t="inlineStr">
         <is>
-          <t>12:53</t>
-        </is>
-      </c>
-      <c r="AC38" t="inlineStr">
-        <is>
-          <t>Uppskattat antal, helt tjockt med plantor så går ej att räkna.</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -5148,7 +5148,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111596854</v>
+        <v>111596852</v>
       </c>
       <c r="B39" t="n">
         <v>98535</v>
@@ -5188,17 +5188,17 @@
       <c r="N39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Björkmossen 296 m NE, Upl</t>
+          <t>Björkmossen 202 m E, Upl</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>654358.4983336662</v>
+        <v>654397.1701999516</v>
       </c>
       <c r="R39" t="n">
-        <v>6691018.199085277</v>
+        <v>6690785.772233884</v>
       </c>
       <c r="S39" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="T39" t="inlineStr">
         <is>
@@ -5227,7 +5227,7 @@
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>15:13</t>
+          <t>13:37</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
@@ -5237,7 +5237,7 @@
       </c>
       <c r="AB39" t="inlineStr">
         <is>
-          <t>15:13</t>
+          <t>13:37</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -5264,10 +5264,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111596851</v>
+        <v>111596867</v>
       </c>
       <c r="B40" t="n">
-        <v>98535</v>
+        <v>99413</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5280,26 +5280,26 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>222498</v>
+        <v>221235</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>7</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -5312,17 +5312,17 @@
       <c r="N40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
-          <t>Björkmossen 266 m E, Upl</t>
+          <t>Björkmossen 254 m N, Upl</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>654461.5003862897</v>
+        <v>654194.2912932655</v>
       </c>
       <c r="R40" t="n">
-        <v>6690768.169657714</v>
+        <v>6691025.120983994</v>
       </c>
       <c r="S40" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="T40" t="inlineStr">
         <is>
@@ -5351,7 +5351,7 @@
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>16:08</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
@@ -5361,7 +5361,7 @@
       </c>
       <c r="AB40" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>16:09</t>
         </is>
       </c>
       <c r="AD40" t="b">

--- a/artfynd/A 29232-2023.xlsx
+++ b/artfynd/A 29232-2023.xlsx
@@ -2724,10 +2724,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111596818</v>
+        <v>111596840</v>
       </c>
       <c r="B19" t="n">
-        <v>57552</v>
+        <v>90687</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2740,46 +2740,40 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>208245</v>
+        <v>5964</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Vanlig padda</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Bufo bufo</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(L.:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Björkmossen 269 m N, Upl</t>
+          <t>Björkmossen 180 m NE, Upl</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>654176.2874868776</v>
+        <v>654329.1032540089</v>
       </c>
       <c r="R19" t="n">
-        <v>6691039.730467042</v>
+        <v>6690891.489788271</v>
       </c>
       <c r="S19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -2808,7 +2802,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>16:12</t>
+          <t>14:58</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2818,7 +2812,12 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>16:12</t>
+          <t>14:58</t>
+        </is>
+      </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>Fuktig mark med nästan bara gran.</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2845,10 +2844,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111596815</v>
+        <v>111596851</v>
       </c>
       <c r="B20" t="n">
-        <v>56414</v>
+        <v>98535</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2857,53 +2856,53 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>100049</v>
+        <v>222498</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Björkmossen 262 m E, Upl</t>
+          <t>Björkmossen 266 m E, Upl</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>654455.0078743013</v>
+        <v>654461.5003862897</v>
       </c>
       <c r="R20" t="n">
-        <v>6690804.096419388</v>
+        <v>6690768.169657714</v>
       </c>
       <c r="S20" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -2932,7 +2931,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>17:46</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2942,7 +2941,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>17:46</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2969,10 +2968,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111596844</v>
+        <v>111596900</v>
       </c>
       <c r="B21" t="n">
-        <v>90684</v>
+        <v>103288</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2981,52 +2980,53 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>4368</v>
+        <v>221144</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Dofttaggsvamp</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Hydnellum suaveolens</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) P. Karst.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>50</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>mycel</t>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Björkmossen 284 m E, Upl</t>
+          <t>Björkmossen 230 m E, Upl</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>654479.2965253602</v>
+        <v>654424.5006373823</v>
       </c>
       <c r="R21" t="n">
-        <v>6690758.510708655</v>
+        <v>6690762.135856108</v>
       </c>
       <c r="S21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -3055,7 +3055,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>13:07</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -3065,12 +3065,12 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>13:08</t>
         </is>
       </c>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>Rätt stark men angenäm doft av bittermandel.</t>
+          <t>Uppskattat antal.</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3079,7 +3079,6 @@
       <c r="AE21" t="b">
         <v>0</v>
       </c>
-      <c r="AF21" t="inlineStr"/>
       <c r="AG21" t="b">
         <v>0</v>
       </c>
@@ -3098,10 +3097,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111596833</v>
+        <v>111596831</v>
       </c>
       <c r="B22" t="n">
-        <v>89601</v>
+        <v>89405</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3110,25 +3109,25 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>1106</v>
+        <v>1202</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Vågticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Osteina undosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Peck) Zmitr.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3137,14 +3136,14 @@
       <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Björkmossen 319 m N, Upl</t>
+          <t>Björkmossen 304 m N, Upl</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>654189.5598878536</v>
+        <v>654194.6095515667</v>
       </c>
       <c r="R22" t="n">
-        <v>6691089.881082441</v>
+        <v>6691076.210478476</v>
       </c>
       <c r="S22" t="n">
         <v>4</v>
@@ -3176,7 +3175,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>16:24</t>
+          <t>16:20</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -3186,7 +3185,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>16:24</t>
+          <t>16:20</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3213,10 +3212,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111596856</v>
+        <v>111596850</v>
       </c>
       <c r="B23" t="n">
-        <v>99413</v>
+        <v>98535</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3229,21 +3228,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>221235</v>
+        <v>222498</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3253,14 +3252,14 @@
       <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Björkmossen 329 m E, Upl</t>
+          <t>Björkmossen 311 m SE, Upl</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>654521.5244157268</v>
+        <v>654503.0392390501</v>
       </c>
       <c r="R23" t="n">
-        <v>6690735.0113796</v>
+        <v>6690725.795596425</v>
       </c>
       <c r="S23" t="n">
         <v>4</v>
@@ -3292,7 +3291,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>11:22</t>
+          <t>11:27</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3302,7 +3301,7 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>11:22</t>
+          <t>11:27</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3444,10 +3443,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111596840</v>
+        <v>111596844</v>
       </c>
       <c r="B25" t="n">
-        <v>90687</v>
+        <v>90684</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3456,41 +3455,49 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>5964</v>
+        <v>4368</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Dofttaggsvamp</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Hydnellum suaveolens</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
+          <t>(Scop.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>mycel</t>
+        </is>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Björkmossen 180 m NE, Upl</t>
+          <t>Björkmossen 284 m E, Upl</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>654329.1032540089</v>
+        <v>654479.2965253602</v>
       </c>
       <c r="R25" t="n">
-        <v>6690891.489788271</v>
+        <v>6690758.510708655</v>
       </c>
       <c r="S25" t="n">
         <v>4</v>
@@ -3522,7 +3529,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>14:58</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3532,12 +3539,12 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>14:58</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>Fuktig mark med nästan bara gran.</t>
+          <t>Rätt stark men angenäm doft av bittermandel.</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3546,6 +3553,7 @@
       <c r="AE25" t="b">
         <v>0</v>
       </c>
+      <c r="AF25" t="inlineStr"/>
       <c r="AG25" t="b">
         <v>0</v>
       </c>
@@ -3564,7 +3572,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111596859</v>
+        <v>111596856</v>
       </c>
       <c r="B26" t="n">
         <v>99413</v>
@@ -3597,32 +3605,24 @@
           <t>(L.) Bernh.</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
       <c r="N26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Björkmossen 311 m SE, Upl</t>
+          <t>Björkmossen 329 m E, Upl</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>654503.0812791266</v>
+        <v>654521.5244157268</v>
       </c>
       <c r="R26" t="n">
-        <v>6690724.805518131</v>
+        <v>6690735.0113796</v>
       </c>
       <c r="S26" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -3651,7 +3651,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>11:25</t>
+          <t>11:22</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3661,7 +3661,7 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>11:27</t>
+          <t>11:22</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3688,10 +3688,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111596843</v>
+        <v>111596832</v>
       </c>
       <c r="B27" t="n">
-        <v>90709</v>
+        <v>89601</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3700,52 +3700,44 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>5448</v>
+        <v>1106</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Vågticka</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Osteina undosa</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Peck) Zmitr.</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="N27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Björkmossen 282 m E, Upl</t>
+          <t>Björkmossen 139 m NE, Upl</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>654476.3214109741</v>
+        <v>654305.2642562862</v>
       </c>
       <c r="R27" t="n">
-        <v>6690758.38440035</v>
+        <v>6690856.260986242</v>
       </c>
       <c r="S27" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -3774,7 +3766,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>14:22</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -3784,12 +3776,7 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>12:02</t>
-        </is>
-      </c>
-      <c r="AC27" t="inlineStr">
-        <is>
-          <t>Väldigt svag doft.</t>
+          <t>14:22</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3816,10 +3803,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111596832</v>
+        <v>111596859</v>
       </c>
       <c r="B28" t="n">
-        <v>89601</v>
+        <v>99413</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3828,44 +3815,53 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>1106</v>
+        <v>221235</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Vågticka</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Osteina undosa</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Peck) Zmitr.</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
+          <t>(L.) Bernh.</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="N28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Björkmossen 139 m NE, Upl</t>
+          <t>Björkmossen 311 m SE, Upl</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>654305.2642562862</v>
+        <v>654503.0812791266</v>
       </c>
       <c r="R28" t="n">
-        <v>6690856.260986242</v>
+        <v>6690724.805518131</v>
       </c>
       <c r="S28" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -3894,7 +3890,7 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>14:22</t>
+          <t>11:25</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
@@ -3904,7 +3900,7 @@
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>14:22</t>
+          <t>11:27</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3931,10 +3927,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111596853</v>
+        <v>111596867</v>
       </c>
       <c r="B29" t="n">
-        <v>98535</v>
+        <v>99413</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3947,41 +3943,49 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>222498</v>
+        <v>221235</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
+          <t>(L.) Bernh.</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
       <c r="N29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Björkmossen 243 m NE, Upl</t>
+          <t>Björkmossen 254 m N, Upl</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>654327.0633065681</v>
+        <v>654194.2912932655</v>
       </c>
       <c r="R29" t="n">
-        <v>6690974.714669497</v>
+        <v>6691025.120983994</v>
       </c>
       <c r="S29" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
@@ -4010,7 +4014,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>15:09</t>
+          <t>16:08</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
@@ -4020,7 +4024,7 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>15:09</t>
+          <t>16:09</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -4047,10 +4051,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111596897</v>
+        <v>111596853</v>
       </c>
       <c r="B30" t="n">
-        <v>103288</v>
+        <v>98535</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -4063,49 +4067,41 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>221144</v>
+        <v>222498</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Sw.</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
       <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Björkmossen 227 m E, Upl</t>
+          <t>Björkmossen 243 m NE, Upl</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>654422.181084068</v>
+        <v>654327.0633065681</v>
       </c>
       <c r="R30" t="n">
-        <v>6690769.97221576</v>
+        <v>6690974.714669497</v>
       </c>
       <c r="S30" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
@@ -4134,7 +4130,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>12:53</t>
+          <t>15:09</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
@@ -4144,12 +4140,7 @@
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>12:53</t>
-        </is>
-      </c>
-      <c r="AC30" t="inlineStr">
-        <is>
-          <t>Uppskattat antal, helt tjockt med plantor så går ej att räkna.</t>
+          <t>15:09</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -4176,10 +4167,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111596895</v>
+        <v>111596815</v>
       </c>
       <c r="B31" t="n">
-        <v>103288</v>
+        <v>56414</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4188,53 +4179,53 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>221144</v>
+        <v>100049</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Björkmossen 238 m E, Upl</t>
+          <t>Björkmossen 262 m E, Upl</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>654433.1528313066</v>
+        <v>654455.0078743013</v>
       </c>
       <c r="R31" t="n">
-        <v>6690768.95009726</v>
+        <v>6690804.096419388</v>
       </c>
       <c r="S31" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
@@ -4263,7 +4254,7 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>12:48</t>
+          <t>17:46</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
@@ -4273,12 +4264,7 @@
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>12:48</t>
-        </is>
-      </c>
-      <c r="AC31" t="inlineStr">
-        <is>
-          <t>Cirka.</t>
+          <t>17:46</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4305,10 +4291,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111596850</v>
+        <v>111596818</v>
       </c>
       <c r="B32" t="n">
-        <v>98535</v>
+        <v>57552</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4321,41 +4307,46 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>222498</v>
+        <v>208245</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Vanlig padda</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Bufo bufo</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Björkmossen 311 m SE, Upl</t>
+          <t>Björkmossen 269 m N, Upl</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>654503.0392390501</v>
+        <v>654176.2874868776</v>
       </c>
       <c r="R32" t="n">
-        <v>6690725.795596425</v>
+        <v>6691039.730467042</v>
       </c>
       <c r="S32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
@@ -4384,7 +4375,7 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>11:27</t>
+          <t>16:12</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
@@ -4394,7 +4385,7 @@
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>11:27</t>
+          <t>16:12</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4549,10 +4540,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111596854</v>
+        <v>111596897</v>
       </c>
       <c r="B34" t="n">
-        <v>98535</v>
+        <v>103288</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4565,38 +4556,46 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>222498</v>
+        <v>221144</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
+          <t>Sw.</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
       <c r="N34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Björkmossen 296 m NE, Upl</t>
+          <t>Björkmossen 227 m E, Upl</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>654358.4983336662</v>
+        <v>654422.181084068</v>
       </c>
       <c r="R34" t="n">
-        <v>6691018.199085277</v>
+        <v>6690769.97221576</v>
       </c>
       <c r="S34" t="n">
         <v>8</v>
@@ -4628,7 +4627,7 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>15:13</t>
+          <t>12:53</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
@@ -4638,7 +4637,12 @@
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>15:13</t>
+          <t>12:53</t>
+        </is>
+      </c>
+      <c r="AC34" t="inlineStr">
+        <is>
+          <t>Uppskattat antal, helt tjockt med plantor så går ej att räkna.</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4665,10 +4669,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111596825</v>
+        <v>111596895</v>
       </c>
       <c r="B35" t="n">
-        <v>89183</v>
+        <v>103288</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4681,40 +4685,49 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>3215</v>
+        <v>221144</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
+          <t>Sw.</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="N35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Björkmossen 246 m E, Upl</t>
+          <t>Björkmossen 238 m E, Upl</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>654441.2125153403</v>
+        <v>654433.1528313066</v>
       </c>
       <c r="R35" t="n">
-        <v>6690766.31663138</v>
+        <v>6690768.95009726</v>
       </c>
       <c r="S35" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="T35" t="inlineStr">
         <is>
@@ -4743,7 +4756,7 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>12:39</t>
+          <t>12:48</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
@@ -4753,7 +4766,12 @@
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>12:39</t>
+          <t>12:48</t>
+        </is>
+      </c>
+      <c r="AC35" t="inlineStr">
+        <is>
+          <t>Cirka.</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4780,10 +4798,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111596900</v>
+        <v>111596833</v>
       </c>
       <c r="B36" t="n">
-        <v>103288</v>
+        <v>89601</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4792,53 +4810,44 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>221144</v>
+        <v>1106</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Vågticka</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Osteina undosa</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Sw.</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+          <t>(Peck) Zmitr.</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
       <c r="N36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Björkmossen 230 m E, Upl</t>
+          <t>Björkmossen 319 m N, Upl</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>654424.5006373823</v>
+        <v>654189.5598878536</v>
       </c>
       <c r="R36" t="n">
-        <v>6690762.135856108</v>
+        <v>6691089.881082441</v>
       </c>
       <c r="S36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T36" t="inlineStr">
         <is>
@@ -4867,7 +4876,7 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>13:07</t>
+          <t>16:24</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
@@ -4877,12 +4886,7 @@
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>13:08</t>
-        </is>
-      </c>
-      <c r="AC36" t="inlineStr">
-        <is>
-          <t>Uppskattat antal.</t>
+          <t>16:24</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4909,10 +4913,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111596831</v>
+        <v>111596852</v>
       </c>
       <c r="B37" t="n">
-        <v>89405</v>
+        <v>98535</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4921,44 +4925,45 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>1202</v>
+        <v>222498</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="N37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Björkmossen 304 m N, Upl</t>
+          <t>Björkmossen 202 m E, Upl</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>654194.6095515667</v>
+        <v>654397.1701999516</v>
       </c>
       <c r="R37" t="n">
-        <v>6691076.210478476</v>
+        <v>6690785.772233884</v>
       </c>
       <c r="S37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T37" t="inlineStr">
         <is>
@@ -4987,7 +4992,7 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>16:20</t>
+          <t>13:37</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
@@ -4997,7 +5002,7 @@
       </c>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>16:20</t>
+          <t>13:37</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -5024,10 +5029,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111596851</v>
+        <v>111596843</v>
       </c>
       <c r="B38" t="n">
-        <v>98535</v>
+        <v>90709</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -5036,53 +5041,52 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>222498</v>
+        <v>5448</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Schultz) nom.prov</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>20</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
+          <t>fruktkroppar</t>
         </is>
       </c>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
       <c r="N38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Björkmossen 266 m E, Upl</t>
+          <t>Björkmossen 282 m E, Upl</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>654461.5003862897</v>
+        <v>654476.3214109741</v>
       </c>
       <c r="R38" t="n">
-        <v>6690768.169657714</v>
+        <v>6690758.38440035</v>
       </c>
       <c r="S38" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="T38" t="inlineStr">
         <is>
@@ -5111,7 +5115,7 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
@@ -5121,7 +5125,12 @@
       </c>
       <c r="AB38" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>12:02</t>
+        </is>
+      </c>
+      <c r="AC38" t="inlineStr">
+        <is>
+          <t>Väldigt svag doft.</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -5148,7 +5157,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111596852</v>
+        <v>111596854</v>
       </c>
       <c r="B39" t="n">
         <v>98535</v>
@@ -5188,17 +5197,17 @@
       <c r="N39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Björkmossen 202 m E, Upl</t>
+          <t>Björkmossen 296 m NE, Upl</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>654397.1701999516</v>
+        <v>654358.4983336662</v>
       </c>
       <c r="R39" t="n">
-        <v>6690785.772233884</v>
+        <v>6691018.199085277</v>
       </c>
       <c r="S39" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="T39" t="inlineStr">
         <is>
@@ -5227,7 +5236,7 @@
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>13:37</t>
+          <t>15:13</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
@@ -5237,7 +5246,7 @@
       </c>
       <c r="AB39" t="inlineStr">
         <is>
-          <t>13:37</t>
+          <t>15:13</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -5264,10 +5273,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111596867</v>
+        <v>111596825</v>
       </c>
       <c r="B40" t="n">
-        <v>99413</v>
+        <v>89183</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5280,49 +5289,40 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>221235</v>
+        <v>3215</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+          <t>(Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
       <c r="N40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
-          <t>Björkmossen 254 m N, Upl</t>
+          <t>Björkmossen 246 m E, Upl</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>654194.2912932655</v>
+        <v>654441.2125153403</v>
       </c>
       <c r="R40" t="n">
-        <v>6691025.120983994</v>
+        <v>6690766.31663138</v>
       </c>
       <c r="S40" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T40" t="inlineStr">
         <is>
@@ -5351,7 +5351,7 @@
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>16:08</t>
+          <t>12:39</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
@@ -5361,7 +5361,7 @@
       </c>
       <c r="AB40" t="inlineStr">
         <is>
-          <t>16:09</t>
+          <t>12:39</t>
         </is>
       </c>
       <c r="AD40" t="b">

--- a/artfynd/A 29232-2023.xlsx
+++ b/artfynd/A 29232-2023.xlsx
@@ -2724,10 +2724,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111596840</v>
+        <v>111596818</v>
       </c>
       <c r="B19" t="n">
-        <v>90687</v>
+        <v>57552</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2740,40 +2740,46 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>5964</v>
+        <v>208245</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Vanlig padda</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Bufo bufo</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Björkmossen 180 m NE, Upl</t>
+          <t>Björkmossen 269 m N, Upl</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>654329.1032540089</v>
+        <v>654176.2874868776</v>
       </c>
       <c r="R19" t="n">
-        <v>6690891.489788271</v>
+        <v>6691039.730467042</v>
       </c>
       <c r="S19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -2802,7 +2808,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>14:58</t>
+          <t>16:12</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2812,12 +2818,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>14:58</t>
-        </is>
-      </c>
-      <c r="AC19" t="inlineStr">
-        <is>
-          <t>Fuktig mark med nästan bara gran.</t>
+          <t>16:12</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2844,7 +2845,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111596851</v>
+        <v>111596852</v>
       </c>
       <c r="B20" t="n">
         <v>98535</v>
@@ -2877,32 +2878,24 @@
           <t>Schreb.</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
       <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Björkmossen 266 m E, Upl</t>
+          <t>Björkmossen 202 m E, Upl</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>654461.5003862897</v>
+        <v>654397.1701999516</v>
       </c>
       <c r="R20" t="n">
-        <v>6690768.169657714</v>
+        <v>6690785.772233884</v>
       </c>
       <c r="S20" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -2931,7 +2924,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>13:37</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2941,7 +2934,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>13:37</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2968,10 +2961,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111596900</v>
+        <v>111596830</v>
       </c>
       <c r="B21" t="n">
-        <v>103288</v>
+        <v>89369</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2984,46 +2977,37 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>221144</v>
+        <v>5447</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Sw.</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+          <t>(Schwein.) Murrill</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
       <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Björkmossen 230 m E, Upl</t>
+          <t>Björkmossen 277 m N, Upl</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>654424.5006373823</v>
+        <v>654228.1590436924</v>
       </c>
       <c r="R21" t="n">
-        <v>6690762.135856108</v>
+        <v>6691046.391933746</v>
       </c>
       <c r="S21" t="n">
         <v>3</v>
@@ -3055,7 +3039,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>13:07</t>
+          <t>16:55</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -3065,12 +3049,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>13:08</t>
-        </is>
-      </c>
-      <c r="AC21" t="inlineStr">
-        <is>
-          <t>Uppskattat antal.</t>
+          <t>16:55</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3097,10 +3076,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111596831</v>
+        <v>111596832</v>
       </c>
       <c r="B22" t="n">
-        <v>89405</v>
+        <v>89601</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3109,25 +3088,25 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>1202</v>
+        <v>1106</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Vågticka</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Osteina undosa</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Peck) Zmitr.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3136,14 +3115,14 @@
       <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Björkmossen 304 m N, Upl</t>
+          <t>Björkmossen 139 m NE, Upl</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>654194.6095515667</v>
+        <v>654305.2642562862</v>
       </c>
       <c r="R22" t="n">
-        <v>6691076.210478476</v>
+        <v>6690856.260986242</v>
       </c>
       <c r="S22" t="n">
         <v>4</v>
@@ -3175,7 +3154,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>16:20</t>
+          <t>14:22</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -3185,7 +3164,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>16:20</t>
+          <t>14:22</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3212,10 +3191,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111596850</v>
+        <v>111596842</v>
       </c>
       <c r="B23" t="n">
-        <v>98535</v>
+        <v>90687</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3228,38 +3207,45 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>222498</v>
+        <v>5964</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
+          <t>(L.:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
       <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Björkmossen 311 m SE, Upl</t>
+          <t>Björkmossen 289 m NE, Upl</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>654503.0392390501</v>
+        <v>654341.4935720729</v>
       </c>
       <c r="R23" t="n">
-        <v>6690725.795596425</v>
+        <v>6691020.948906532</v>
       </c>
       <c r="S23" t="n">
         <v>4</v>
@@ -3291,7 +3277,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>11:27</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3301,7 +3287,12 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>11:27</t>
+          <t>17:15</t>
+        </is>
+      </c>
+      <c r="AC23" t="inlineStr">
+        <is>
+          <t>Fuktig mark med mest gran.</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3328,10 +3319,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111596830</v>
+        <v>111596867</v>
       </c>
       <c r="B24" t="n">
-        <v>89369</v>
+        <v>99413</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3344,40 +3335,49 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>5447</v>
+        <v>221235</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
+          <t>(L.) Bernh.</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Björkmossen 277 m N, Upl</t>
+          <t>Björkmossen 254 m N, Upl</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>654228.1590436924</v>
+        <v>654194.2912932655</v>
       </c>
       <c r="R24" t="n">
-        <v>6691046.391933746</v>
+        <v>6691025.120983994</v>
       </c>
       <c r="S24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -3406,7 +3406,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>16:55</t>
+          <t>16:08</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -3416,7 +3416,7 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>16:55</t>
+          <t>16:09</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3443,10 +3443,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111596844</v>
+        <v>111596900</v>
       </c>
       <c r="B25" t="n">
-        <v>90684</v>
+        <v>103288</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3455,52 +3455,53 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>4368</v>
+        <v>221144</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Dofttaggsvamp</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Hydnellum suaveolens</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) P. Karst.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>50</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>mycel</t>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Björkmossen 284 m E, Upl</t>
+          <t>Björkmossen 230 m E, Upl</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>654479.2965253602</v>
+        <v>654424.5006373823</v>
       </c>
       <c r="R25" t="n">
-        <v>6690758.510708655</v>
+        <v>6690762.135856108</v>
       </c>
       <c r="S25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -3529,7 +3530,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>13:07</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3539,12 +3540,12 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>13:08</t>
         </is>
       </c>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>Rätt stark men angenäm doft av bittermandel.</t>
+          <t>Uppskattat antal.</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3553,7 +3554,6 @@
       <c r="AE25" t="b">
         <v>0</v>
       </c>
-      <c r="AF25" t="inlineStr"/>
       <c r="AG25" t="b">
         <v>0</v>
       </c>
@@ -3572,10 +3572,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111596856</v>
+        <v>111596850</v>
       </c>
       <c r="B26" t="n">
-        <v>99413</v>
+        <v>98535</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3588,21 +3588,21 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>221235</v>
+        <v>222498</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3612,14 +3612,14 @@
       <c r="N26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Björkmossen 329 m E, Upl</t>
+          <t>Björkmossen 311 m SE, Upl</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>654521.5244157268</v>
+        <v>654503.0392390501</v>
       </c>
       <c r="R26" t="n">
-        <v>6690735.0113796</v>
+        <v>6690725.795596425</v>
       </c>
       <c r="S26" t="n">
         <v>4</v>
@@ -3651,7 +3651,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>11:22</t>
+          <t>11:27</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3661,7 +3661,7 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>11:22</t>
+          <t>11:27</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3688,10 +3688,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111596832</v>
+        <v>111596825</v>
       </c>
       <c r="B27" t="n">
-        <v>89601</v>
+        <v>89183</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3700,25 +3700,25 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>1106</v>
+        <v>3215</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Vågticka</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Osteina undosa</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Peck) Zmitr.</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3727,17 +3727,17 @@
       <c r="N27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Björkmossen 139 m NE, Upl</t>
+          <t>Björkmossen 246 m E, Upl</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>654305.2642562862</v>
+        <v>654441.2125153403</v>
       </c>
       <c r="R27" t="n">
-        <v>6690856.260986242</v>
+        <v>6690766.31663138</v>
       </c>
       <c r="S27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -3766,7 +3766,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>14:22</t>
+          <t>12:39</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -3776,7 +3776,7 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>14:22</t>
+          <t>12:39</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3803,10 +3803,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111596859</v>
+        <v>111596897</v>
       </c>
       <c r="B28" t="n">
-        <v>99413</v>
+        <v>103288</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3819,26 +3819,26 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>221235</v>
+        <v>221144</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>100</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -3851,17 +3851,17 @@
       <c r="N28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Björkmossen 311 m SE, Upl</t>
+          <t>Björkmossen 227 m E, Upl</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>654503.0812791266</v>
+        <v>654422.181084068</v>
       </c>
       <c r="R28" t="n">
-        <v>6690724.805518131</v>
+        <v>6690769.97221576</v>
       </c>
       <c r="S28" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>11:25</t>
+          <t>12:53</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
@@ -3900,7 +3900,12 @@
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>11:27</t>
+          <t>12:53</t>
+        </is>
+      </c>
+      <c r="AC28" t="inlineStr">
+        <is>
+          <t>Uppskattat antal, helt tjockt med plantor så går ej att räkna.</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3927,10 +3932,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111596867</v>
+        <v>111596831</v>
       </c>
       <c r="B29" t="n">
-        <v>99413</v>
+        <v>89405</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3939,50 +3944,41 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>221235</v>
+        <v>1202</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
       <c r="N29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Björkmossen 254 m N, Upl</t>
+          <t>Björkmossen 304 m N, Upl</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>654194.2912932655</v>
+        <v>654194.6095515667</v>
       </c>
       <c r="R29" t="n">
-        <v>6691025.120983994</v>
+        <v>6691076.210478476</v>
       </c>
       <c r="S29" t="n">
         <v>4</v>
@@ -4014,7 +4010,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>16:08</t>
+          <t>16:20</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
@@ -4024,7 +4020,7 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>16:09</t>
+          <t>16:20</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -4051,10 +4047,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111596853</v>
+        <v>111596840</v>
       </c>
       <c r="B30" t="n">
-        <v>98535</v>
+        <v>90687</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -4067,41 +4063,40 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>222498</v>
+        <v>5964</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
       <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Björkmossen 243 m NE, Upl</t>
+          <t>Björkmossen 180 m NE, Upl</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>654327.0633065681</v>
+        <v>654329.1032540089</v>
       </c>
       <c r="R30" t="n">
-        <v>6690974.714669497</v>
+        <v>6690891.489788271</v>
       </c>
       <c r="S30" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
@@ -4130,7 +4125,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>15:09</t>
+          <t>14:58</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
@@ -4140,7 +4135,12 @@
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>15:09</t>
+          <t>14:58</t>
+        </is>
+      </c>
+      <c r="AC30" t="inlineStr">
+        <is>
+          <t>Fuktig mark med nästan bara gran.</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -4291,10 +4291,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111596818</v>
+        <v>111596833</v>
       </c>
       <c r="B32" t="n">
-        <v>57552</v>
+        <v>89601</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4303,50 +4303,44 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>208245</v>
+        <v>1106</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Vanlig padda</t>
+          <t>Vågticka</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Bufo bufo</t>
+          <t>Osteina undosa</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(Peck) Zmitr.</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Björkmossen 269 m N, Upl</t>
+          <t>Björkmossen 319 m N, Upl</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>654176.2874868776</v>
+        <v>654189.5598878536</v>
       </c>
       <c r="R32" t="n">
-        <v>6691039.730467042</v>
+        <v>6691089.881082441</v>
       </c>
       <c r="S32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
@@ -4375,7 +4369,7 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>16:12</t>
+          <t>16:24</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
@@ -4385,7 +4379,7 @@
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>16:12</t>
+          <t>16:24</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4412,10 +4406,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111596842</v>
+        <v>111596843</v>
       </c>
       <c r="B33" t="n">
-        <v>90687</v>
+        <v>90709</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4424,30 +4418,30 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>5964</v>
+        <v>5448</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>(Schultz) nom.prov</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>20</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -4459,17 +4453,17 @@
       <c r="N33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Björkmossen 289 m NE, Upl</t>
+          <t>Björkmossen 282 m E, Upl</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>654341.4935720729</v>
+        <v>654476.3214109741</v>
       </c>
       <c r="R33" t="n">
-        <v>6691020.948906532</v>
+        <v>6690758.38440035</v>
       </c>
       <c r="S33" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="T33" t="inlineStr">
         <is>
@@ -4498,7 +4492,7 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>17:15</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
@@ -4508,12 +4502,12 @@
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>17:15</t>
+          <t>12:02</t>
         </is>
       </c>
       <c r="AC33" t="inlineStr">
         <is>
-          <t>Fuktig mark med mest gran.</t>
+          <t>Väldigt svag doft.</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4540,10 +4534,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111596897</v>
+        <v>111596856</v>
       </c>
       <c r="B34" t="n">
-        <v>103288</v>
+        <v>99413</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4556,49 +4550,41 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>221144</v>
+        <v>221235</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Sw.</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+          <t>(L.) Bernh.</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
       <c r="N34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Björkmossen 227 m E, Upl</t>
+          <t>Björkmossen 329 m E, Upl</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>654422.181084068</v>
+        <v>654521.5244157268</v>
       </c>
       <c r="R34" t="n">
-        <v>6690769.97221576</v>
+        <v>6690735.0113796</v>
       </c>
       <c r="S34" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="T34" t="inlineStr">
         <is>
@@ -4627,7 +4613,7 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>12:53</t>
+          <t>11:22</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
@@ -4637,12 +4623,7 @@
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>12:53</t>
-        </is>
-      </c>
-      <c r="AC34" t="inlineStr">
-        <is>
-          <t>Uppskattat antal, helt tjockt med plantor så går ej att räkna.</t>
+          <t>11:22</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4669,10 +4650,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111596895</v>
+        <v>111596844</v>
       </c>
       <c r="B35" t="n">
-        <v>103288</v>
+        <v>90684</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4681,53 +4662,52 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>221144</v>
+        <v>4368</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Dofttaggsvamp</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Hydnellum suaveolens</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(Scop.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
+          <t>mycel</t>
         </is>
       </c>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
       <c r="N35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Björkmossen 238 m E, Upl</t>
+          <t>Björkmossen 284 m E, Upl</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>654433.1528313066</v>
+        <v>654479.2965253602</v>
       </c>
       <c r="R35" t="n">
-        <v>6690768.95009726</v>
+        <v>6690758.510708655</v>
       </c>
       <c r="S35" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="T35" t="inlineStr">
         <is>
@@ -4756,7 +4736,7 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>12:48</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
@@ -4766,12 +4746,12 @@
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>12:48</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="AC35" t="inlineStr">
         <is>
-          <t>Cirka.</t>
+          <t>Rätt stark men angenäm doft av bittermandel.</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4780,6 +4760,7 @@
       <c r="AE35" t="b">
         <v>0</v>
       </c>
+      <c r="AF35" t="inlineStr"/>
       <c r="AG35" t="b">
         <v>0</v>
       </c>
@@ -4798,10 +4779,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111596833</v>
+        <v>111596853</v>
       </c>
       <c r="B36" t="n">
-        <v>89601</v>
+        <v>98535</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4810,44 +4791,45 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>1106</v>
+        <v>222498</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Vågticka</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Osteina undosa</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Peck) Zmitr.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="N36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Björkmossen 319 m N, Upl</t>
+          <t>Björkmossen 243 m NE, Upl</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>654189.5598878536</v>
+        <v>654327.0633065681</v>
       </c>
       <c r="R36" t="n">
-        <v>6691089.881082441</v>
+        <v>6690974.714669497</v>
       </c>
       <c r="S36" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="T36" t="inlineStr">
         <is>
@@ -4876,7 +4858,7 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>16:24</t>
+          <t>15:09</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
@@ -4886,7 +4868,7 @@
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>16:24</t>
+          <t>15:09</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4913,7 +4895,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111596852</v>
+        <v>111596851</v>
       </c>
       <c r="B37" t="n">
         <v>98535</v>
@@ -4946,24 +4928,32 @@
           <t>Schreb.</t>
         </is>
       </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
       <c r="N37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Björkmossen 202 m E, Upl</t>
+          <t>Björkmossen 266 m E, Upl</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>654397.1701999516</v>
+        <v>654461.5003862897</v>
       </c>
       <c r="R37" t="n">
-        <v>6690785.772233884</v>
+        <v>6690768.169657714</v>
       </c>
       <c r="S37" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="T37" t="inlineStr">
         <is>
@@ -4992,7 +4982,7 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>13:37</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
@@ -5002,7 +4992,7 @@
       </c>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>13:37</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -5029,10 +5019,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111596843</v>
+        <v>111596859</v>
       </c>
       <c r="B38" t="n">
-        <v>90709</v>
+        <v>99413</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -5041,52 +5031,53 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>5448</v>
+        <v>221235</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>fruktkroppar</t>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="N38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Björkmossen 282 m E, Upl</t>
+          <t>Björkmossen 311 m SE, Upl</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>654476.3214109741</v>
+        <v>654503.0812791266</v>
       </c>
       <c r="R38" t="n">
-        <v>6690758.38440035</v>
+        <v>6690724.805518131</v>
       </c>
       <c r="S38" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="T38" t="inlineStr">
         <is>
@@ -5115,7 +5106,7 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>11:25</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
@@ -5125,12 +5116,7 @@
       </c>
       <c r="AB38" t="inlineStr">
         <is>
-          <t>12:02</t>
-        </is>
-      </c>
-      <c r="AC38" t="inlineStr">
-        <is>
-          <t>Väldigt svag doft.</t>
+          <t>11:27</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -5157,10 +5143,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111596854</v>
+        <v>111596895</v>
       </c>
       <c r="B39" t="n">
-        <v>98535</v>
+        <v>103288</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -5173,41 +5159,49 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>222498</v>
+        <v>221144</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
+          <t>Sw.</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
       <c r="N39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Björkmossen 296 m NE, Upl</t>
+          <t>Björkmossen 238 m E, Upl</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>654358.4983336662</v>
+        <v>654433.1528313066</v>
       </c>
       <c r="R39" t="n">
-        <v>6691018.199085277</v>
+        <v>6690768.95009726</v>
       </c>
       <c r="S39" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="T39" t="inlineStr">
         <is>
@@ -5236,7 +5230,7 @@
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>15:13</t>
+          <t>12:48</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
@@ -5246,7 +5240,12 @@
       </c>
       <c r="AB39" t="inlineStr">
         <is>
-          <t>15:13</t>
+          <t>12:48</t>
+        </is>
+      </c>
+      <c r="AC39" t="inlineStr">
+        <is>
+          <t>Cirka.</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -5273,10 +5272,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111596825</v>
+        <v>111596854</v>
       </c>
       <c r="B40" t="n">
-        <v>89183</v>
+        <v>98535</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5289,40 +5288,41 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>3215</v>
+        <v>222498</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="N40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
-          <t>Björkmossen 246 m E, Upl</t>
+          <t>Björkmossen 296 m NE, Upl</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>654441.2125153403</v>
+        <v>654358.4983336662</v>
       </c>
       <c r="R40" t="n">
-        <v>6690766.31663138</v>
+        <v>6691018.199085277</v>
       </c>
       <c r="S40" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="T40" t="inlineStr">
         <is>
@@ -5351,7 +5351,7 @@
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>12:39</t>
+          <t>15:13</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
@@ -5361,7 +5361,7 @@
       </c>
       <c r="AB40" t="inlineStr">
         <is>
-          <t>12:39</t>
+          <t>15:13</t>
         </is>
       </c>
       <c r="AD40" t="b">

--- a/artfynd/A 29232-2023.xlsx
+++ b/artfynd/A 29232-2023.xlsx
@@ -3803,10 +3803,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111596897</v>
+        <v>111596831</v>
       </c>
       <c r="B28" t="n">
-        <v>103288</v>
+        <v>89405</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3815,53 +3815,44 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>221144</v>
+        <v>1202</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Sw.</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
       <c r="N28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Björkmossen 227 m E, Upl</t>
+          <t>Björkmossen 304 m N, Upl</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>654422.181084068</v>
+        <v>654194.6095515667</v>
       </c>
       <c r="R28" t="n">
-        <v>6690769.97221576</v>
+        <v>6691076.210478476</v>
       </c>
       <c r="S28" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -3890,7 +3881,7 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>12:53</t>
+          <t>16:20</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
@@ -3900,12 +3891,7 @@
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>12:53</t>
-        </is>
-      </c>
-      <c r="AC28" t="inlineStr">
-        <is>
-          <t>Uppskattat antal, helt tjockt med plantor så går ej att räkna.</t>
+          <t>16:20</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3932,10 +3918,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111596831</v>
+        <v>111596897</v>
       </c>
       <c r="B29" t="n">
-        <v>89405</v>
+        <v>103288</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3944,44 +3930,53 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>1202</v>
+        <v>221144</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
+          <t>Sw.</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="N29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Björkmossen 304 m N, Upl</t>
+          <t>Björkmossen 227 m E, Upl</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>654194.6095515667</v>
+        <v>654422.181084068</v>
       </c>
       <c r="R29" t="n">
-        <v>6691076.210478476</v>
+        <v>6690769.97221576</v>
       </c>
       <c r="S29" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
@@ -4010,7 +4005,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>16:20</t>
+          <t>12:53</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
@@ -4020,7 +4015,12 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>16:20</t>
+          <t>12:53</t>
+        </is>
+      </c>
+      <c r="AC29" t="inlineStr">
+        <is>
+          <t>Uppskattat antal, helt tjockt med plantor så går ej att räkna.</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -5019,10 +5019,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111596859</v>
+        <v>111596895</v>
       </c>
       <c r="B38" t="n">
-        <v>99413</v>
+        <v>103288</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -5035,26 +5035,26 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>221235</v>
+        <v>221144</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>30</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -5067,14 +5067,14 @@
       <c r="N38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Björkmossen 311 m SE, Upl</t>
+          <t>Björkmossen 238 m E, Upl</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>654503.0812791266</v>
+        <v>654433.1528313066</v>
       </c>
       <c r="R38" t="n">
-        <v>6690724.805518131</v>
+        <v>6690768.95009726</v>
       </c>
       <c r="S38" t="n">
         <v>6</v>
@@ -5106,7 +5106,7 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>11:25</t>
+          <t>12:48</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
@@ -5116,7 +5116,12 @@
       </c>
       <c r="AB38" t="inlineStr">
         <is>
-          <t>11:27</t>
+          <t>12:48</t>
+        </is>
+      </c>
+      <c r="AC38" t="inlineStr">
+        <is>
+          <t>Cirka.</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -5143,10 +5148,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111596895</v>
+        <v>111596859</v>
       </c>
       <c r="B39" t="n">
-        <v>103288</v>
+        <v>99413</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -5159,26 +5164,26 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>221144</v>
+        <v>221235</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>15</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -5191,14 +5196,14 @@
       <c r="N39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Björkmossen 238 m E, Upl</t>
+          <t>Björkmossen 311 m SE, Upl</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>654433.1528313066</v>
+        <v>654503.0812791266</v>
       </c>
       <c r="R39" t="n">
-        <v>6690768.95009726</v>
+        <v>6690724.805518131</v>
       </c>
       <c r="S39" t="n">
         <v>6</v>
@@ -5230,7 +5235,7 @@
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>12:48</t>
+          <t>11:25</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
@@ -5240,12 +5245,7 @@
       </c>
       <c r="AB39" t="inlineStr">
         <is>
-          <t>12:48</t>
-        </is>
-      </c>
-      <c r="AC39" t="inlineStr">
-        <is>
-          <t>Cirka.</t>
+          <t>11:27</t>
         </is>
       </c>
       <c r="AD39" t="b">

--- a/artfynd/A 29232-2023.xlsx
+++ b/artfynd/A 29232-2023.xlsx
@@ -2724,10 +2724,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111596818</v>
+        <v>111596844</v>
       </c>
       <c r="B19" t="n">
-        <v>57552</v>
+        <v>90684</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2736,25 +2736,25 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>208245</v>
+        <v>4368</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Vanlig padda</t>
+          <t>Dofttaggsvamp</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Bufo bufo</t>
+          <t>Hydnellum suaveolens</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Scop.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -2762,24 +2762,26 @@
           <t>1</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>mycel</t>
+        </is>
+      </c>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Björkmossen 269 m N, Upl</t>
+          <t>Björkmossen 284 m E, Upl</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>654176.2874868776</v>
+        <v>654479.2965253602</v>
       </c>
       <c r="R19" t="n">
-        <v>6691039.730467042</v>
+        <v>6690758.510708655</v>
       </c>
       <c r="S19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -2808,7 +2810,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>16:12</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2818,7 +2820,12 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>16:12</t>
+          <t>12:15</t>
+        </is>
+      </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>Rätt stark men angenäm doft av bittermandel.</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2827,6 +2834,7 @@
       <c r="AE19" t="b">
         <v>0</v>
       </c>
+      <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="b">
         <v>0</v>
       </c>
@@ -2845,10 +2853,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111596852</v>
+        <v>111596840</v>
       </c>
       <c r="B20" t="n">
-        <v>98535</v>
+        <v>90687</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2861,41 +2869,40 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>222498</v>
+        <v>5964</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
       <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Björkmossen 202 m E, Upl</t>
+          <t>Björkmossen 180 m NE, Upl</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>654397.1701999516</v>
+        <v>654329.1032540089</v>
       </c>
       <c r="R20" t="n">
-        <v>6690785.772233884</v>
+        <v>6690891.489788271</v>
       </c>
       <c r="S20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -2924,7 +2931,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>13:37</t>
+          <t>14:58</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2934,7 +2941,12 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>13:37</t>
+          <t>14:58</t>
+        </is>
+      </c>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>Fuktig mark med nästan bara gran.</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2961,10 +2973,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111596830</v>
+        <v>111596815</v>
       </c>
       <c r="B21" t="n">
-        <v>89369</v>
+        <v>56414</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2973,44 +2985,53 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>5447</v>
+        <v>100049</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Björkmossen 277 m N, Upl</t>
+          <t>Björkmossen 262 m E, Upl</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>654228.1590436924</v>
+        <v>654455.0078743013</v>
       </c>
       <c r="R21" t="n">
-        <v>6691046.391933746</v>
+        <v>6690804.096419388</v>
       </c>
       <c r="S21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -3039,7 +3060,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>16:55</t>
+          <t>17:46</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -3049,7 +3070,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>16:55</t>
+          <t>17:46</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3076,10 +3097,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111596832</v>
+        <v>111596853</v>
       </c>
       <c r="B22" t="n">
-        <v>89601</v>
+        <v>98535</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3088,44 +3109,45 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>1106</v>
+        <v>222498</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Vågticka</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Osteina undosa</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Peck) Zmitr.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Björkmossen 139 m NE, Upl</t>
+          <t>Björkmossen 243 m NE, Upl</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>654305.2642562862</v>
+        <v>654327.0633065681</v>
       </c>
       <c r="R22" t="n">
-        <v>6690856.260986242</v>
+        <v>6690974.714669497</v>
       </c>
       <c r="S22" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -3154,7 +3176,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>14:22</t>
+          <t>15:09</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -3164,7 +3186,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>14:22</t>
+          <t>15:09</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3191,10 +3213,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111596842</v>
+        <v>111596833</v>
       </c>
       <c r="B23" t="n">
-        <v>90687</v>
+        <v>89601</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3203,49 +3225,41 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>5964</v>
+        <v>1106</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Vågticka</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Osteina undosa</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Peck) Zmitr.</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Björkmossen 289 m NE, Upl</t>
+          <t>Björkmossen 319 m N, Upl</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>654341.4935720729</v>
+        <v>654189.5598878536</v>
       </c>
       <c r="R23" t="n">
-        <v>6691020.948906532</v>
+        <v>6691089.881082441</v>
       </c>
       <c r="S23" t="n">
         <v>4</v>
@@ -3277,7 +3291,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>17:15</t>
+          <t>16:24</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3287,12 +3301,7 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>17:15</t>
-        </is>
-      </c>
-      <c r="AC23" t="inlineStr">
-        <is>
-          <t>Fuktig mark med mest gran.</t>
+          <t>16:24</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3319,10 +3328,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111596867</v>
+        <v>111596825</v>
       </c>
       <c r="B24" t="n">
-        <v>99413</v>
+        <v>89183</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3335,49 +3344,40 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>221235</v>
+        <v>3215</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+          <t>(Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
       <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Björkmossen 254 m N, Upl</t>
+          <t>Björkmossen 246 m E, Upl</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>654194.2912932655</v>
+        <v>654441.2125153403</v>
       </c>
       <c r="R24" t="n">
-        <v>6691025.120983994</v>
+        <v>6690766.31663138</v>
       </c>
       <c r="S24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -3406,7 +3406,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>16:08</t>
+          <t>12:39</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -3416,7 +3416,7 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>16:09</t>
+          <t>12:39</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3443,10 +3443,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111596900</v>
+        <v>111596832</v>
       </c>
       <c r="B25" t="n">
-        <v>103288</v>
+        <v>89601</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3455,53 +3455,44 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>221144</v>
+        <v>1106</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Vågticka</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Osteina undosa</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Sw.</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+          <t>(Peck) Zmitr.</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
       <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Björkmossen 230 m E, Upl</t>
+          <t>Björkmossen 139 m NE, Upl</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>654424.5006373823</v>
+        <v>654305.2642562862</v>
       </c>
       <c r="R25" t="n">
-        <v>6690762.135856108</v>
+        <v>6690856.260986242</v>
       </c>
       <c r="S25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -3530,7 +3521,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>13:07</t>
+          <t>14:22</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3540,12 +3531,7 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>13:08</t>
-        </is>
-      </c>
-      <c r="AC25" t="inlineStr">
-        <is>
-          <t>Uppskattat antal.</t>
+          <t>14:22</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3572,7 +3558,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111596850</v>
+        <v>111596854</v>
       </c>
       <c r="B26" t="n">
         <v>98535</v>
@@ -3612,17 +3598,17 @@
       <c r="N26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Björkmossen 311 m SE, Upl</t>
+          <t>Björkmossen 296 m NE, Upl</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>654503.0392390501</v>
+        <v>654358.4983336662</v>
       </c>
       <c r="R26" t="n">
-        <v>6690725.795596425</v>
+        <v>6691018.199085277</v>
       </c>
       <c r="S26" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -3651,7 +3637,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>11:27</t>
+          <t>15:13</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3661,7 +3647,7 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>11:27</t>
+          <t>15:13</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3688,10 +3674,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111596825</v>
+        <v>111596897</v>
       </c>
       <c r="B27" t="n">
-        <v>89183</v>
+        <v>103288</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3704,40 +3690,49 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>3215</v>
+        <v>221144</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
+          <t>Sw.</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="N27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Björkmossen 246 m E, Upl</t>
+          <t>Björkmossen 227 m E, Upl</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>654441.2125153403</v>
+        <v>654422.181084068</v>
       </c>
       <c r="R27" t="n">
-        <v>6690766.31663138</v>
+        <v>6690769.97221576</v>
       </c>
       <c r="S27" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -3766,7 +3761,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>12:39</t>
+          <t>12:53</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -3776,7 +3771,12 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>12:39</t>
+          <t>12:53</t>
+        </is>
+      </c>
+      <c r="AC27" t="inlineStr">
+        <is>
+          <t>Uppskattat antal, helt tjockt med plantor så går ej att räkna.</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3803,10 +3803,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111596831</v>
+        <v>111596852</v>
       </c>
       <c r="B28" t="n">
-        <v>89405</v>
+        <v>98535</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3815,44 +3815,45 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>1202</v>
+        <v>222498</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="N28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Björkmossen 304 m N, Upl</t>
+          <t>Björkmossen 202 m E, Upl</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>654194.6095515667</v>
+        <v>654397.1701999516</v>
       </c>
       <c r="R28" t="n">
-        <v>6691076.210478476</v>
+        <v>6690785.772233884</v>
       </c>
       <c r="S28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -3881,7 +3882,7 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>16:20</t>
+          <t>13:37</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
@@ -3891,7 +3892,7 @@
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>16:20</t>
+          <t>13:37</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3918,10 +3919,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111596897</v>
+        <v>111596851</v>
       </c>
       <c r="B29" t="n">
-        <v>103288</v>
+        <v>98535</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3934,26 +3935,26 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>221144</v>
+        <v>222498</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -3966,17 +3967,17 @@
       <c r="N29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Björkmossen 227 m E, Upl</t>
+          <t>Björkmossen 266 m E, Upl</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>654422.181084068</v>
+        <v>654461.5003862897</v>
       </c>
       <c r="R29" t="n">
-        <v>6690769.97221576</v>
+        <v>6690768.169657714</v>
       </c>
       <c r="S29" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
@@ -4005,7 +4006,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>12:53</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
@@ -4015,12 +4016,7 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>12:53</t>
-        </is>
-      </c>
-      <c r="AC29" t="inlineStr">
-        <is>
-          <t>Uppskattat antal, helt tjockt med plantor så går ej att räkna.</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -4047,10 +4043,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111596840</v>
+        <v>111596830</v>
       </c>
       <c r="B30" t="n">
-        <v>90687</v>
+        <v>89369</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -4063,21 +4059,21 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>5964</v>
+        <v>5447</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -4086,17 +4082,17 @@
       <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Björkmossen 180 m NE, Upl</t>
+          <t>Björkmossen 277 m N, Upl</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>654329.1032540089</v>
+        <v>654228.1590436924</v>
       </c>
       <c r="R30" t="n">
-        <v>6690891.489788271</v>
+        <v>6691046.391933746</v>
       </c>
       <c r="S30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
@@ -4125,7 +4121,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>14:58</t>
+          <t>16:55</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
@@ -4135,12 +4131,7 @@
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>14:58</t>
-        </is>
-      </c>
-      <c r="AC30" t="inlineStr">
-        <is>
-          <t>Fuktig mark med nästan bara gran.</t>
+          <t>16:55</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -4167,10 +4158,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111596815</v>
+        <v>111596900</v>
       </c>
       <c r="B31" t="n">
-        <v>56414</v>
+        <v>103288</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4179,53 +4170,53 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>100049</v>
+        <v>221144</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Björkmossen 262 m E, Upl</t>
+          <t>Björkmossen 230 m E, Upl</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>654455.0078743013</v>
+        <v>654424.5006373823</v>
       </c>
       <c r="R31" t="n">
-        <v>6690804.096419388</v>
+        <v>6690762.135856108</v>
       </c>
       <c r="S31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
@@ -4254,7 +4245,7 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>17:46</t>
+          <t>13:07</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
@@ -4264,7 +4255,12 @@
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>17:46</t>
+          <t>13:08</t>
+        </is>
+      </c>
+      <c r="AC31" t="inlineStr">
+        <is>
+          <t>Uppskattat antal.</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4291,10 +4287,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111596833</v>
+        <v>111596850</v>
       </c>
       <c r="B32" t="n">
-        <v>89601</v>
+        <v>98535</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4303,41 +4299,42 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>1106</v>
+        <v>222498</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Vågticka</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Osteina undosa</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Peck) Zmitr.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="N32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Björkmossen 319 m N, Upl</t>
+          <t>Björkmossen 311 m SE, Upl</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>654189.5598878536</v>
+        <v>654503.0392390501</v>
       </c>
       <c r="R32" t="n">
-        <v>6691089.881082441</v>
+        <v>6690725.795596425</v>
       </c>
       <c r="S32" t="n">
         <v>4</v>
@@ -4369,7 +4366,7 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>16:24</t>
+          <t>11:27</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
@@ -4379,7 +4376,7 @@
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>16:24</t>
+          <t>11:27</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4406,10 +4403,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111596843</v>
+        <v>111596859</v>
       </c>
       <c r="B33" t="n">
-        <v>90709</v>
+        <v>99413</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4418,52 +4415,53 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>5448</v>
+        <v>221235</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>fruktkroppar</t>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="N33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Björkmossen 282 m E, Upl</t>
+          <t>Björkmossen 311 m SE, Upl</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>654476.3214109741</v>
+        <v>654503.0812791266</v>
       </c>
       <c r="R33" t="n">
-        <v>6690758.38440035</v>
+        <v>6690724.805518131</v>
       </c>
       <c r="S33" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="T33" t="inlineStr">
         <is>
@@ -4492,7 +4490,7 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>11:25</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
@@ -4502,12 +4500,7 @@
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>12:02</t>
-        </is>
-      </c>
-      <c r="AC33" t="inlineStr">
-        <is>
-          <t>Väldigt svag doft.</t>
+          <t>11:27</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4534,10 +4527,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111596856</v>
+        <v>111596895</v>
       </c>
       <c r="B34" t="n">
-        <v>99413</v>
+        <v>103288</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4550,41 +4543,49 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>221235</v>
+        <v>221144</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
+          <t>Sw.</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
       <c r="N34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Björkmossen 329 m E, Upl</t>
+          <t>Björkmossen 238 m E, Upl</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>654521.5244157268</v>
+        <v>654433.1528313066</v>
       </c>
       <c r="R34" t="n">
-        <v>6690735.0113796</v>
+        <v>6690768.95009726</v>
       </c>
       <c r="S34" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="T34" t="inlineStr">
         <is>
@@ -4613,7 +4614,7 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>11:22</t>
+          <t>12:48</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
@@ -4623,7 +4624,12 @@
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>11:22</t>
+          <t>12:48</t>
+        </is>
+      </c>
+      <c r="AC34" t="inlineStr">
+        <is>
+          <t>Cirka.</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4650,10 +4656,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111596844</v>
+        <v>111596831</v>
       </c>
       <c r="B35" t="n">
-        <v>90684</v>
+        <v>89405</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4666,45 +4672,37 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>4368</v>
+        <v>1202</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Dofttaggsvamp</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Hydnellum suaveolens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) P. Karst.</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>mycel</t>
-        </is>
-      </c>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="N35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Björkmossen 284 m E, Upl</t>
+          <t>Björkmossen 304 m N, Upl</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>654479.2965253602</v>
+        <v>654194.6095515667</v>
       </c>
       <c r="R35" t="n">
-        <v>6690758.510708655</v>
+        <v>6691076.210478476</v>
       </c>
       <c r="S35" t="n">
         <v>4</v>
@@ -4736,7 +4734,7 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>16:20</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
@@ -4746,12 +4744,7 @@
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>12:15</t>
-        </is>
-      </c>
-      <c r="AC35" t="inlineStr">
-        <is>
-          <t>Rätt stark men angenäm doft av bittermandel.</t>
+          <t>16:20</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4760,7 +4753,6 @@
       <c r="AE35" t="b">
         <v>0</v>
       </c>
-      <c r="AF35" t="inlineStr"/>
       <c r="AG35" t="b">
         <v>0</v>
       </c>
@@ -4779,10 +4771,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111596853</v>
+        <v>111596867</v>
       </c>
       <c r="B36" t="n">
-        <v>98535</v>
+        <v>99413</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4795,41 +4787,49 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>222498</v>
+        <v>221235</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
+          <t>(L.) Bernh.</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
       <c r="N36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Björkmossen 243 m NE, Upl</t>
+          <t>Björkmossen 254 m N, Upl</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>654327.0633065681</v>
+        <v>654194.2912932655</v>
       </c>
       <c r="R36" t="n">
-        <v>6690974.714669497</v>
+        <v>6691025.120983994</v>
       </c>
       <c r="S36" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="T36" t="inlineStr">
         <is>
@@ -4858,7 +4858,7 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>15:09</t>
+          <t>16:08</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
@@ -4868,7 +4868,7 @@
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>15:09</t>
+          <t>16:09</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4895,10 +4895,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111596851</v>
+        <v>111596842</v>
       </c>
       <c r="B37" t="n">
-        <v>98535</v>
+        <v>90687</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4911,49 +4911,48 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>222498</v>
+        <v>5964</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
+          <t>fruktkroppar</t>
         </is>
       </c>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
       <c r="N37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Björkmossen 266 m E, Upl</t>
+          <t>Björkmossen 289 m NE, Upl</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>654461.5003862897</v>
+        <v>654341.4935720729</v>
       </c>
       <c r="R37" t="n">
-        <v>6690768.169657714</v>
+        <v>6691020.948906532</v>
       </c>
       <c r="S37" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="T37" t="inlineStr">
         <is>
@@ -4982,7 +4981,7 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
@@ -4992,7 +4991,12 @@
       </c>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>17:15</t>
+        </is>
+      </c>
+      <c r="AC37" t="inlineStr">
+        <is>
+          <t>Fuktig mark med mest gran.</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -5019,10 +5023,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111596895</v>
+        <v>111596856</v>
       </c>
       <c r="B38" t="n">
-        <v>103288</v>
+        <v>99413</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -5035,49 +5039,41 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>221144</v>
+        <v>221235</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Sw.</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+          <t>(L.) Bernh.</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
       <c r="N38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Björkmossen 238 m E, Upl</t>
+          <t>Björkmossen 329 m E, Upl</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>654433.1528313066</v>
+        <v>654521.5244157268</v>
       </c>
       <c r="R38" t="n">
-        <v>6690768.95009726</v>
+        <v>6690735.0113796</v>
       </c>
       <c r="S38" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="T38" t="inlineStr">
         <is>
@@ -5106,7 +5102,7 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>12:48</t>
+          <t>11:22</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
@@ -5116,12 +5112,7 @@
       </c>
       <c r="AB38" t="inlineStr">
         <is>
-          <t>12:48</t>
-        </is>
-      </c>
-      <c r="AC38" t="inlineStr">
-        <is>
-          <t>Cirka.</t>
+          <t>11:22</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -5148,10 +5139,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111596859</v>
+        <v>111596818</v>
       </c>
       <c r="B39" t="n">
-        <v>99413</v>
+        <v>57552</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -5164,49 +5155,46 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>221235</v>
+        <v>208245</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Vanlig padda</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Bufo bufo</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Björkmossen 311 m SE, Upl</t>
+          <t>Björkmossen 269 m N, Upl</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>654503.0812791266</v>
+        <v>654176.2874868776</v>
       </c>
       <c r="R39" t="n">
-        <v>6690724.805518131</v>
+        <v>6691039.730467042</v>
       </c>
       <c r="S39" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="T39" t="inlineStr">
         <is>
@@ -5235,7 +5223,7 @@
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>11:25</t>
+          <t>16:12</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
@@ -5245,7 +5233,7 @@
       </c>
       <c r="AB39" t="inlineStr">
         <is>
-          <t>11:27</t>
+          <t>16:12</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -5272,10 +5260,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111596854</v>
+        <v>111596843</v>
       </c>
       <c r="B40" t="n">
-        <v>98535</v>
+        <v>90709</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5284,42 +5272,49 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>222498</v>
+        <v>5448</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
+          <t>(Schultz) nom.prov</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
       <c r="N40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
-          <t>Björkmossen 296 m NE, Upl</t>
+          <t>Björkmossen 282 m E, Upl</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>654358.4983336662</v>
+        <v>654476.3214109741</v>
       </c>
       <c r="R40" t="n">
-        <v>6691018.199085277</v>
+        <v>6690758.38440035</v>
       </c>
       <c r="S40" t="n">
         <v>8</v>
@@ -5351,7 +5346,7 @@
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>15:13</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
@@ -5361,7 +5356,12 @@
       </c>
       <c r="AB40" t="inlineStr">
         <is>
-          <t>15:13</t>
+          <t>12:02</t>
+        </is>
+      </c>
+      <c r="AC40" t="inlineStr">
+        <is>
+          <t>Väldigt svag doft.</t>
         </is>
       </c>
       <c r="AD40" t="b">
